--- a/inbox-excel-vocabs/Photocatalsis_LIKAT_template043.xlsx
+++ b/inbox-excel-vocabs/Photocatalsis_LIKAT_template043.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="507">
   <si>
     <t xml:space="preserve">Created by </t>
   </si>
@@ -1391,9 +1391,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wavelength range, Light intensity </t>
-  </si>
-  <si>
-    <t>The wavelength range that the selected light source emits. As different photocatalysts absorb difference range of wavelengths, a light source of appropriate wavelength should be selected.</t>
   </si>
   <si>
     <t xml:space="preserve">The value of intensity of light emitted by the selected light source. The light intensity must be measured at the same distance as the light source from the reaction chamber / sample. </t>
@@ -2004,20 +2001,14 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2028,6 +2019,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2156,48 +2153,6 @@
           <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2364,6 +2319,48 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2457,19 +2454,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:J157" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
-  <autoFilter ref="A2:J157"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:J156" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A2:J156"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Concept IRI*" dataDxfId="21" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" name="Preferred Label*" dataDxfId="20"/>
-    <tableColumn id="3" name="Preferred Label Lang code" dataDxfId="19"/>
-    <tableColumn id="4" name="Definition*" dataDxfId="18"/>
-    <tableColumn id="5" name="Definition Language Code" dataDxfId="17"/>
-    <tableColumn id="6" name="Alternate Label" dataDxfId="16"/>
-    <tableColumn id="7" name="Children URI" dataDxfId="15"/>
-    <tableColumn id="8" name="Provenance" dataDxfId="14"/>
-    <tableColumn id="9" name="Source Vocab URI" dataDxfId="13"/>
-    <tableColumn id="10" name="Children by Pref. Label" dataDxfId="12"/>
+    <tableColumn id="1" name="Concept IRI*" dataDxfId="19" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" name="Preferred Label*" dataDxfId="18"/>
+    <tableColumn id="3" name="Preferred Label Lang code" dataDxfId="17"/>
+    <tableColumn id="4" name="Definition*" dataDxfId="16"/>
+    <tableColumn id="5" name="Definition Language Code" dataDxfId="15"/>
+    <tableColumn id="6" name="Alternate Label" dataDxfId="14"/>
+    <tableColumn id="7" name="Children URI" dataDxfId="13"/>
+    <tableColumn id="8" name="Provenance" dataDxfId="12"/>
+    <tableColumn id="9" name="Source Vocab URI" dataDxfId="11"/>
+    <tableColumn id="10" name="Children by Pref. Label" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2705,7 +2702,7 @@
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="42" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="41"/>
@@ -2772,7 +2769,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="41"/>
@@ -2787,7 +2784,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="48" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="41"/>
@@ -2802,7 +2799,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="44"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
@@ -2815,7 +2812,7 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="41"/>
@@ -2860,7 +2857,7 @@
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="44" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="41"/>
@@ -2875,7 +2872,7 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="43" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="41"/>
@@ -2896,11 +2893,11 @@
       <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="41"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="41"/>
@@ -2913,11 +2910,11 @@
       <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="41"/>
@@ -2943,7 +2940,7 @@
       <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="41"/>
@@ -2997,7 +2994,7 @@
       <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="41"/>
@@ -3025,7 +3022,7 @@
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="41"/>
@@ -3053,7 +3050,7 @@
       <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="41"/>
@@ -4059,6 +4056,11 @@
     <row r="1005" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H10:J10"/>
@@ -4069,11 +4071,6 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A25:G25"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:J18 K1:K8 K17:K28 H3:J7 H10:J10 H8 K10:K15 H13:J13 H14 A18:G18 A15:J15 A19:J28 A10:G14 A2:G8 A1:J1 A9:K9">
     <cfRule type="containsBlanks" dxfId="9" priority="13">
@@ -10161,10 +10158,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J542"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G174"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13176,11 +13173,11 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A129" s="38"/>
+      <c r="A129" s="17"/>
       <c r="B129" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="C129" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D129" s="14" t="s">
@@ -13197,62 +13194,62 @@
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
     </row>
-    <row r="130" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A130" s="17"/>
       <c r="B130" s="20" t="s">
-        <v>249</v>
+        <v>410</v>
       </c>
       <c r="C130" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
+      <c r="G130" s="14"/>
       <c r="H130" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-    </row>
-    <row r="131" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="J130" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
       <c r="B131" s="20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E131" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F131" s="13"/>
-      <c r="G131" s="14"/>
+      <c r="G131" s="13"/>
       <c r="H131" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I131" s="13"/>
-      <c r="J131" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J131" s="13"/>
+    </row>
+    <row r="132" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E132" s="19" t="s">
         <v>69</v>
@@ -13265,16 +13262,16 @@
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
     </row>
-    <row r="133" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
       <c r="B133" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E133" s="19" t="s">
         <v>69</v>
@@ -13287,16 +13284,16 @@
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
       <c r="B134" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>69</v>
@@ -13307,18 +13304,20 @@
         <v>72</v>
       </c>
       <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
+      <c r="J134" s="13" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="135" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
       <c r="B135" s="20" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E135" s="19" t="s">
         <v>69</v>
@@ -13330,19 +13329,19 @@
       </c>
       <c r="I135" s="13"/>
       <c r="J135" s="13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
       <c r="B136" s="20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E136" s="19" t="s">
         <v>69</v>
@@ -13353,42 +13352,42 @@
         <v>72</v>
       </c>
       <c r="I136" s="13"/>
-      <c r="J136" s="13" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
       <c r="B137" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
+      <c r="G137" s="14"/>
       <c r="H137" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-    </row>
-    <row r="138" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J137" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
       <c r="B138" s="20" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E138" s="19" t="s">
         <v>69</v>
@@ -13400,73 +13399,71 @@
       </c>
       <c r="I138" s="13"/>
       <c r="J138" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A139" s="17"/>
       <c r="B139" s="20" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E139" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F139" s="13"/>
-      <c r="G139" s="14"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I139" s="13"/>
-      <c r="J139" s="14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:10" ht="72" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
       <c r="B140" s="20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
-      <c r="H140" s="14" t="s">
-        <v>72</v>
+      <c r="H140" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
     </row>
-    <row r="141" spans="1:10" ht="72" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
       <c r="B141" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E141" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
-      <c r="H141" s="17" t="s">
-        <v>319</v>
+      <c r="H141" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
@@ -13474,35 +13471,37 @@
     <row r="142" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="17"/>
       <c r="B142" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E142" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
+      <c r="G142" s="14"/>
       <c r="H142" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-    </row>
-    <row r="143" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J142" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
       <c r="B143" s="20" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E143" s="19" t="s">
         <v>69</v>
@@ -13514,19 +13513,19 @@
       </c>
       <c r="I143" s="13"/>
       <c r="J143" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A144" s="17"/>
       <c r="B144" s="20" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E144" s="19" t="s">
         <v>69</v>
@@ -13538,43 +13537,41 @@
       </c>
       <c r="I144" s="13"/>
       <c r="J144" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A145" s="17"/>
       <c r="B145" s="20" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E145" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F145" s="13"/>
       <c r="G145" s="14"/>
-      <c r="H145" s="14" t="s">
-        <v>72</v>
+      <c r="H145" s="13" t="s">
+        <v>450</v>
       </c>
       <c r="I145" s="13"/>
-      <c r="J145" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="J145" s="14"/>
+    </row>
+    <row r="146" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A146" s="17"/>
       <c r="B146" s="20" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C146" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>69</v>
@@ -13582,7 +13579,7 @@
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
       <c r="H146" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I146" s="13"/>
       <c r="J146" s="14"/>
@@ -13590,41 +13587,43 @@
     <row r="147" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A147" s="17"/>
       <c r="B147" s="20" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E147" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F147" s="13"/>
+      <c r="F147" s="14" t="s">
+        <v>456</v>
+      </c>
       <c r="G147" s="14"/>
-      <c r="H147" s="13" t="s">
-        <v>454</v>
+      <c r="H147" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="I147" s="13"/>
       <c r="J147" s="14"/>
     </row>
-    <row r="148" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
       <c r="B148" s="20" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E148" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G148" s="14"/>
       <c r="H148" s="14" t="s">
@@ -13636,20 +13635,18 @@
     <row r="149" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A149" s="17"/>
       <c r="B149" s="20" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E149" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F149" s="14" t="s">
-        <v>460</v>
-      </c>
+      <c r="F149" s="13"/>
       <c r="G149" s="14"/>
       <c r="H149" s="14" t="s">
         <v>72</v>
@@ -13660,13 +13657,13 @@
     <row r="150" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A150" s="17"/>
       <c r="B150" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E150" s="19" t="s">
         <v>69</v>
@@ -13679,84 +13676,86 @@
       <c r="I150" s="13"/>
       <c r="J150" s="14"/>
     </row>
-    <row r="151" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="17"/>
       <c r="B151" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E151" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F151" s="13"/>
-      <c r="G151" s="14"/>
+      <c r="G151" s="13"/>
       <c r="H151" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I151" s="13"/>
-      <c r="J151" s="14"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J151" s="13"/>
+    </row>
+    <row r="152" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A152" s="17"/>
       <c r="B152" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E152" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
+      <c r="G152" s="14"/>
       <c r="H152" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
+      <c r="J152" s="14" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="153" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A153" s="17"/>
       <c r="B153" s="20" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E153" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F153" s="13"/>
-      <c r="G153" s="14"/>
+      <c r="G153" s="13"/>
       <c r="H153" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I153" s="13"/>
-      <c r="J153" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="J153" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="17"/>
       <c r="B154" s="20" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E154" s="19" t="s">
         <v>69</v>
@@ -13767,20 +13766,18 @@
         <v>72</v>
       </c>
       <c r="I154" s="13"/>
-      <c r="J154" s="13" t="s">
-        <v>472</v>
-      </c>
+      <c r="J154" s="13"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
       <c r="B155" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E155" s="19" t="s">
         <v>69</v>
@@ -13796,13 +13793,13 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="17"/>
       <c r="B156" s="20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C156" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E156" s="19" t="s">
         <v>69</v>
@@ -13817,28 +13814,17 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="17"/>
-      <c r="B157" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="E157" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="B157" s="14"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="13"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-      <c r="H157" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="H157" s="13"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="13"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="17"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="13"/>
       <c r="D158" s="14"/>
@@ -13850,7 +13836,6 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
-      <c r="B159" s="14"/>
       <c r="C159" s="13"/>
       <c r="D159" s="14"/>
       <c r="E159" s="13"/>
@@ -13872,7 +13857,7 @@
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
       <c r="C161" s="13"/>
-      <c r="D161" s="14"/>
+      <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
@@ -13910,9 +13895,9 @@
       <c r="I164" s="13"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="13"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
+      <c r="A165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
       <c r="E165" s="13"/>
       <c r="F165" s="13"/>
       <c r="G165" s="13"/>
@@ -13920,8 +13905,8 @@
       <c r="I165" s="13"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="14"/>
-      <c r="C166" s="14"/>
+      <c r="A166" s="15"/>
+      <c r="C166" s="15"/>
       <c r="D166" s="14"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
@@ -13951,6 +13936,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="15"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="15"/>
       <c r="D169" s="14"/>
       <c r="E169" s="13"/>
@@ -13993,10 +13979,10 @@
       <c r="I172" s="13"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="15"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="14"/>
+      <c r="A173" s="14"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
       <c r="G173" s="13"/>
@@ -14015,7 +14001,7 @@
       <c r="I174" s="13"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="14"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
@@ -14048,7 +14034,7 @@
       <c r="I177" s="13"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="13"/>
+      <c r="A178" s="14"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -14059,7 +14045,7 @@
       <c r="I178" s="13"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="14"/>
+      <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
@@ -14070,7 +14056,7 @@
       <c r="I179" s="13"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="13"/>
+      <c r="A180" s="14"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
@@ -14191,7 +14177,7 @@
       <c r="I190" s="13"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="14"/>
+      <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
@@ -18050,17 +18036,6 @@
       <c r="G541" s="13"/>
       <c r="H541" s="13"/>
       <c r="I541" s="13"/>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A542" s="13"/>
-      <c r="B542" s="13"/>
-      <c r="C542" s="13"/>
-      <c r="D542" s="13"/>
-      <c r="E542" s="13"/>
-      <c r="F542" s="13"/>
-      <c r="G542" s="13"/>
-      <c r="H542" s="13"/>
-      <c r="I542" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18076,7 +18051,7 @@
     <hyperlink ref="H104" r:id="rId7"/>
     <hyperlink ref="H105" r:id="rId8"/>
     <hyperlink ref="H110" r:id="rId9"/>
-    <hyperlink ref="H141" r:id="rId10"/>
+    <hyperlink ref="H140" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
@@ -18106,7 +18081,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -18116,27 +18091,27 @@
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A3,Concepts!A3:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A3,Concepts!A3:A541,1), "")</f>
         <v/>
       </c>
       <c r="B3" s="13"/>
@@ -18147,7 +18122,7 @@
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A31,Concepts!A31:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A31,Concepts!A31:A541,1), "")</f>
         <v/>
       </c>
       <c r="B4" s="13"/>
@@ -18158,7 +18133,7 @@
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A32,Concepts!A32:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A32,Concepts!A32:A541,1), "")</f>
         <v/>
       </c>
       <c r="B5" s="13"/>
@@ -18169,7 +18144,7 @@
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A33,Concepts!A33:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A33,Concepts!A33:A541,1), "")</f>
         <v/>
       </c>
       <c r="B6" s="13"/>
@@ -18180,7 +18155,7 @@
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A38:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A38:A541,1), "")</f>
         <v/>
       </c>
       <c r="B7" s="13"/>
@@ -18191,7 +18166,7 @@
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A38,Concepts!A38:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A38,Concepts!A38:A541,1), "")</f>
         <v/>
       </c>
       <c r="B8" s="13"/>
@@ -18202,7 +18177,7 @@
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A40,Concepts!A40:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A40,Concepts!A40:A541,1), "")</f>
         <v/>
       </c>
       <c r="B9" s="13"/>
@@ -18213,7 +18188,7 @@
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A41,Concepts!A41:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A41,Concepts!A41:A541,1), "")</f>
         <v/>
       </c>
       <c r="B10" s="13"/>
@@ -18224,7 +18199,7 @@
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A42,Concepts!A42:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A42,Concepts!A42:A541,1), "")</f>
         <v/>
       </c>
       <c r="B11" s="13"/>
@@ -18235,7 +18210,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A43,Concepts!A43:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A43,Concepts!A43:A541,1), "")</f>
         <v/>
       </c>
       <c r="B12" s="13"/>
@@ -18246,7 +18221,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A44,Concepts!A44:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A44,Concepts!A44:A541,1), "")</f>
         <v/>
       </c>
       <c r="B13" s="13"/>
@@ -18257,7 +18232,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A46,Concepts!A46:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A46,Concepts!A46:A541,1), "")</f>
         <v/>
       </c>
       <c r="B14" s="13"/>
@@ -18268,7 +18243,7 @@
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A50,Concepts!A50:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A50,Concepts!A50:A541,1), "")</f>
         <v/>
       </c>
       <c r="B15" s="13"/>
@@ -18279,7 +18254,7 @@
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A51,Concepts!A51:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A51,Concepts!A51:A541,1), "")</f>
         <v/>
       </c>
       <c r="B16" s="13"/>
@@ -18290,7 +18265,7 @@
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A52,Concepts!A52:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A52,Concepts!A52:A541,1), "")</f>
         <v/>
       </c>
       <c r="B17" s="13"/>
@@ -18301,7 +18276,7 @@
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A53,Concepts!A53:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A53,Concepts!A53:A541,1), "")</f>
         <v/>
       </c>
       <c r="B18" s="13"/>
@@ -18312,7 +18287,7 @@
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A54,Concepts!A54:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A54,Concepts!A54:A541,1), "")</f>
         <v/>
       </c>
       <c r="B19" s="13"/>
@@ -18323,7 +18298,7 @@
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A55,Concepts!A55:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A55,Concepts!A55:A541,1), "")</f>
         <v/>
       </c>
       <c r="B20" s="13"/>
@@ -18334,7 +18309,7 @@
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A56,Concepts!A56:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A56,Concepts!A56:A541,1), "")</f>
         <v/>
       </c>
       <c r="B21" s="13"/>
@@ -18345,7 +18320,7 @@
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A57,Concepts!A57:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A57,Concepts!A57:A541,1), "")</f>
         <v/>
       </c>
       <c r="B22" s="13"/>
@@ -18356,7 +18331,7 @@
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A58,Concepts!A58:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A58,Concepts!A58:A541,1), "")</f>
         <v/>
       </c>
       <c r="B23" s="13"/>
@@ -18367,7 +18342,7 @@
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A59,Concepts!A59:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A59,Concepts!A59:A541,1), "")</f>
         <v/>
       </c>
       <c r="B24" s="13"/>
@@ -18378,7 +18353,7 @@
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A60,Concepts!A60:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A60,Concepts!A60:A541,1), "")</f>
         <v/>
       </c>
       <c r="B25" s="13"/>
@@ -18389,7 +18364,7 @@
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A61,Concepts!A61:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A61,Concepts!A61:A541,1), "")</f>
         <v/>
       </c>
       <c r="B26" s="13"/>
@@ -18400,7 +18375,7 @@
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A62,Concepts!A62:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A62,Concepts!A62:A541,1), "")</f>
         <v/>
       </c>
       <c r="B27" s="13"/>
@@ -18411,7 +18386,7 @@
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A63,Concepts!A63:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A63,Concepts!A63:A541,1), "")</f>
         <v/>
       </c>
       <c r="B28" s="13"/>
@@ -18422,7 +18397,7 @@
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A64,Concepts!A64:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A64,Concepts!A64:A541,1), "")</f>
         <v/>
       </c>
       <c r="B29" s="13"/>
@@ -18433,7 +18408,7 @@
     </row>
     <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A65,Concepts!A65:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A65,Concepts!A65:A541,1), "")</f>
         <v/>
       </c>
       <c r="B30" s="13"/>
@@ -18444,7 +18419,7 @@
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A66,Concepts!A66:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A66,Concepts!A66:A541,1), "")</f>
         <v/>
       </c>
       <c r="B31" s="13"/>
@@ -18455,7 +18430,7 @@
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A67,Concepts!A67:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A67,Concepts!A67:A541,1), "")</f>
         <v/>
       </c>
       <c r="B32" s="13"/>
@@ -18466,7 +18441,7 @@
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A68,Concepts!A68:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A68,Concepts!A68:A541,1), "")</f>
         <v/>
       </c>
       <c r="B33" s="13"/>
@@ -18477,7 +18452,7 @@
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A69,Concepts!A69:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A69,Concepts!A69:A541,1), "")</f>
         <v/>
       </c>
       <c r="B34" s="13"/>
@@ -18488,7 +18463,7 @@
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A72,Concepts!A72:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A72,Concepts!A72:A541,1), "")</f>
         <v/>
       </c>
       <c r="B35" s="13"/>
@@ -18499,7 +18474,7 @@
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A73,Concepts!A73:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A73,Concepts!A73:A541,1), "")</f>
         <v/>
       </c>
       <c r="B36" s="13"/>
@@ -18510,7 +18485,7 @@
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A74,Concepts!A74:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A74,Concepts!A74:A541,1), "")</f>
         <v/>
       </c>
       <c r="B37" s="13"/>
@@ -18521,7 +18496,7 @@
     </row>
     <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A75,Concepts!A75:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A75,Concepts!A75:A541,1), "")</f>
         <v/>
       </c>
       <c r="B38" s="13"/>
@@ -18532,7 +18507,7 @@
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A76:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A76:A541,1), "")</f>
         <v/>
       </c>
       <c r="B39" s="13"/>
@@ -18543,7 +18518,7 @@
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A76:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A76:A541,1), "")</f>
         <v/>
       </c>
       <c r="B40" s="13"/>
@@ -18554,7 +18529,7 @@
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A78,Concepts!A78:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A78,Concepts!A78:A541,1), "")</f>
         <v/>
       </c>
       <c r="B41" s="13"/>
@@ -18565,7 +18540,7 @@
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A79,Concepts!A79:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A79,Concepts!A79:A541,1), "")</f>
         <v/>
       </c>
       <c r="B42" s="13"/>
@@ -18576,7 +18551,7 @@
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A80:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A80:A541,1), "")</f>
         <v/>
       </c>
       <c r="B43" s="13"/>
@@ -18587,7 +18562,7 @@
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A80:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A80:A541,1), "")</f>
         <v/>
       </c>
       <c r="B44" s="13"/>
@@ -18598,7 +18573,7 @@
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A80,Concepts!A80:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A80,Concepts!A80:A541,1), "")</f>
         <v/>
       </c>
       <c r="B45" s="13"/>
@@ -18609,7 +18584,7 @@
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A81,Concepts!A81:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A81,Concepts!A81:A541,1), "")</f>
         <v/>
       </c>
       <c r="B46" s="13"/>
@@ -18620,7 +18595,7 @@
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A82,Concepts!A82:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A82,Concepts!A82:A541,1), "")</f>
         <v/>
       </c>
       <c r="B47" s="13"/>
@@ -18631,7 +18606,7 @@
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A83,Concepts!A83:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A83,Concepts!A83:A541,1), "")</f>
         <v/>
       </c>
       <c r="B48" s="13"/>
@@ -18642,7 +18617,7 @@
     </row>
     <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A84,Concepts!A84:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A84,Concepts!A84:A541,1), "")</f>
         <v/>
       </c>
       <c r="B49" s="13"/>
@@ -18653,7 +18628,7 @@
     </row>
     <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A85,Concepts!A85:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A85,Concepts!A85:A541,1), "")</f>
         <v/>
       </c>
       <c r="B50" s="13"/>
@@ -18664,7 +18639,7 @@
     </row>
     <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A86,Concepts!A86:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A86,Concepts!A86:A541,1), "")</f>
         <v/>
       </c>
       <c r="B51" s="13"/>
@@ -18675,7 +18650,7 @@
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A87,Concepts!A87:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A87,Concepts!A87:A541,1), "")</f>
         <v/>
       </c>
       <c r="B52" s="13"/>
@@ -18686,7 +18661,7 @@
     </row>
     <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A88,Concepts!A88:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A88,Concepts!A88:A541,1), "")</f>
         <v/>
       </c>
       <c r="B53" s="13"/>
@@ -18697,7 +18672,7 @@
     </row>
     <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A89,Concepts!A89:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A89,Concepts!A89:A541,1), "")</f>
         <v/>
       </c>
       <c r="B54" s="13"/>
@@ -18708,7 +18683,7 @@
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A541,1), "")</f>
         <v/>
       </c>
       <c r="B55" s="13"/>
@@ -18719,7 +18694,7 @@
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A541,1), "")</f>
         <v/>
       </c>
       <c r="B56" s="13"/>
@@ -18730,7 +18705,7 @@
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A541,1), "")</f>
         <v/>
       </c>
       <c r="B57" s="13"/>
@@ -18741,7 +18716,7 @@
     </row>
     <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A541,1), "")</f>
         <v/>
       </c>
       <c r="B58" s="13"/>
@@ -18752,7 +18727,7 @@
     </row>
     <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A541,1), "")</f>
         <v/>
       </c>
       <c r="B59" s="13"/>
@@ -18763,7 +18738,7 @@
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A91:A541,1), "")</f>
         <v/>
       </c>
       <c r="B60" s="13"/>
@@ -18774,7 +18749,7 @@
     </row>
     <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A91,Concepts!A91:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A91,Concepts!A91:A541,1), "")</f>
         <v/>
       </c>
       <c r="B61" s="13"/>
@@ -18785,7 +18760,7 @@
     </row>
     <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A92:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A92:A541,1), "")</f>
         <v/>
       </c>
       <c r="B62" s="13"/>
@@ -18796,7 +18771,7 @@
     </row>
     <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A92:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A92:A541,1), "")</f>
         <v/>
       </c>
       <c r="B63" s="13"/>
@@ -18807,7 +18782,7 @@
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A92,Concepts!A92:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A92,Concepts!A92:A541,1), "")</f>
         <v/>
       </c>
       <c r="B64" s="13"/>
@@ -18818,7 +18793,7 @@
     </row>
     <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A93,Concepts!A93:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A93,Concepts!A93:A541,1), "")</f>
         <v/>
       </c>
       <c r="B65" s="13"/>
@@ -18829,7 +18804,7 @@
     </row>
     <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A94,Concepts!A94:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A94,Concepts!A94:A541,1), "")</f>
         <v/>
       </c>
       <c r="B66" s="13"/>
@@ -18840,7 +18815,7 @@
     </row>
     <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A95,Concepts!A95:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A95,Concepts!A95:A541,1), "")</f>
         <v/>
       </c>
       <c r="B67" s="13"/>
@@ -18851,7 +18826,7 @@
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A96,Concepts!A96:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A96,Concepts!A96:A541,1), "")</f>
         <v/>
       </c>
       <c r="B68" s="13"/>
@@ -18862,7 +18837,7 @@
     </row>
     <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A97,Concepts!A97:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A97,Concepts!A97:A541,1), "")</f>
         <v/>
       </c>
       <c r="B69" s="13"/>
@@ -18873,7 +18848,7 @@
     </row>
     <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A98,Concepts!A98:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A98,Concepts!A98:A541,1), "")</f>
         <v/>
       </c>
       <c r="B70" s="13"/>
@@ -18884,7 +18859,7 @@
     </row>
     <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A99,Concepts!A99:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A99,Concepts!A99:A541,1), "")</f>
         <v/>
       </c>
       <c r="B71" s="13"/>
@@ -18895,7 +18870,7 @@
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A100,Concepts!A100:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A100,Concepts!A100:A541,1), "")</f>
         <v/>
       </c>
       <c r="B72" s="13"/>
@@ -18906,7 +18881,7 @@
     </row>
     <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A101,Concepts!A101:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A101,Concepts!A101:A541,1), "")</f>
         <v/>
       </c>
       <c r="B73" s="13"/>
@@ -18917,7 +18892,7 @@
     </row>
     <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A102,Concepts!A102:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A102,Concepts!A102:A541,1), "")</f>
         <v/>
       </c>
       <c r="B74" s="13"/>
@@ -18928,7 +18903,7 @@
     </row>
     <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A103,Concepts!A103:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A103,Concepts!A103:A541,1), "")</f>
         <v/>
       </c>
       <c r="B75" s="13"/>
@@ -18939,7 +18914,7 @@
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A105:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A105:A541,1), "")</f>
         <v/>
       </c>
       <c r="B76" s="13"/>
@@ -18950,7 +18925,7 @@
     </row>
     <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A105,Concepts!A105:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A105,Concepts!A105:A541,1), "")</f>
         <v/>
       </c>
       <c r="B77" s="13"/>
@@ -18961,7 +18936,7 @@
     </row>
     <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A106,Concepts!A106:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A106,Concepts!A106:A541,1), "")</f>
         <v/>
       </c>
       <c r="B78" s="13"/>
@@ -18972,7 +18947,7 @@
     </row>
     <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A107,Concepts!A107:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A107,Concepts!A107:A541,1), "")</f>
         <v/>
       </c>
       <c r="B79" s="13"/>
@@ -18983,7 +18958,7 @@
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A111:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A111:A541,1), "")</f>
         <v/>
       </c>
       <c r="B80" s="13"/>
@@ -18994,7 +18969,7 @@
     </row>
     <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A111,Concepts!A111:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A111,Concepts!A111:A541,1), "")</f>
         <v/>
       </c>
       <c r="B81" s="13"/>
@@ -19005,7 +18980,7 @@
     </row>
     <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A113:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A113:A541,1), "")</f>
         <v/>
       </c>
       <c r="B82" s="13"/>
@@ -19016,7 +18991,7 @@
     </row>
     <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A113,Concepts!A113:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A113,Concepts!A113:A541,1), "")</f>
         <v/>
       </c>
       <c r="B83" s="13"/>
@@ -19027,7 +19002,7 @@
     </row>
     <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A114,Concepts!A114:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A114,Concepts!A114:A541,1), "")</f>
         <v/>
       </c>
       <c r="B84" s="13"/>
@@ -19038,7 +19013,7 @@
     </row>
     <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A119:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A119:A541,1), "")</f>
         <v/>
       </c>
       <c r="B85" s="13"/>
@@ -19049,7 +19024,7 @@
     </row>
     <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A119:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A119:A541,1), "")</f>
         <v/>
       </c>
       <c r="B86" s="13"/>
@@ -19060,7 +19035,7 @@
     </row>
     <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A119:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A119:A541,1), "")</f>
         <v/>
       </c>
       <c r="B87" s="13"/>
@@ -19071,7 +19046,7 @@
     </row>
     <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A128,Concepts!A128:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A128,Concepts!A128:A541,1), "")</f>
         <v/>
       </c>
       <c r="B88" s="13"/>
@@ -19082,7 +19057,7 @@
     </row>
     <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A129,Concepts!A129:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A129:A541,1), "")</f>
         <v/>
       </c>
       <c r="B89" s="13"/>
@@ -19093,7 +19068,7 @@
     </row>
     <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A130,Concepts!A130:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A129,Concepts!A129:A541,1), "")</f>
         <v/>
       </c>
       <c r="B90" s="13"/>
@@ -19104,7 +19079,7 @@
     </row>
     <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A131,Concepts!A131:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A130,Concepts!A130:A541,1), "")</f>
         <v/>
       </c>
       <c r="B91" s="13"/>
@@ -19115,7 +19090,7 @@
     </row>
     <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A133,Concepts!A133:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A132,Concepts!A132:A541,1), "")</f>
         <v/>
       </c>
       <c r="B92" s="13"/>
@@ -19126,7 +19101,7 @@
     </row>
     <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A134,Concepts!A134:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A133,Concepts!A133:A541,1), "")</f>
         <v/>
       </c>
       <c r="B93" s="13"/>
@@ -19137,7 +19112,7 @@
     </row>
     <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A135,Concepts!A135:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A134,Concepts!A134:A541,1), "")</f>
         <v/>
       </c>
       <c r="B94" s="13"/>
@@ -19148,7 +19123,7 @@
     </row>
     <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A136,Concepts!A136:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A135,Concepts!A135:A541,1), "")</f>
         <v/>
       </c>
       <c r="B95" s="13"/>
@@ -19159,7 +19134,7 @@
     </row>
     <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A137,Concepts!A137:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A136,Concepts!A136:A541,1), "")</f>
         <v/>
       </c>
       <c r="B96" s="13"/>
@@ -19170,7 +19145,7 @@
     </row>
     <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A138,Concepts!A138:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A137,Concepts!A137:A541,1), "")</f>
         <v/>
       </c>
       <c r="B97" s="13"/>
@@ -19181,7 +19156,7 @@
     </row>
     <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A139,Concepts!A139:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A138,Concepts!A138:A541,1), "")</f>
         <v/>
       </c>
       <c r="B98" s="13"/>
@@ -19192,7 +19167,7 @@
     </row>
     <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A143,Concepts!A143:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A142,Concepts!A142:A541,1), "")</f>
         <v/>
       </c>
       <c r="B99" s="13"/>
@@ -19203,7 +19178,7 @@
     </row>
     <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A155:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A154:A541,1), "")</f>
         <v/>
       </c>
       <c r="B100" s="13"/>
@@ -19214,7 +19189,7 @@
     </row>
     <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A155,Concepts!A155:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A154,Concepts!A154:A541,1), "")</f>
         <v/>
       </c>
       <c r="B101" s="13"/>
@@ -19225,7 +19200,7 @@
     </row>
     <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A156,Concepts!A156:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A155,Concepts!A155:A541,1), "")</f>
         <v/>
       </c>
       <c r="B102" s="13"/>
@@ -19236,7 +19211,7 @@
     </row>
     <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A157:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A156:A541,1), "")</f>
         <v/>
       </c>
       <c r="B103" s="13"/>
@@ -19247,7 +19222,7 @@
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A157:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A156:A541,1), "")</f>
         <v/>
       </c>
       <c r="B104" s="13"/>
@@ -19258,7 +19233,7 @@
     </row>
     <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A157,Concepts!A157:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A156,Concepts!A156:A541,1), "")</f>
         <v/>
       </c>
       <c r="B105" s="13"/>
@@ -19269,7 +19244,7 @@
     </row>
     <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A158:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A157:A541,1), "")</f>
         <v/>
       </c>
       <c r="B106" s="13"/>
@@ -19280,7 +19255,7 @@
     </row>
     <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A158:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A157:A541,1), "")</f>
         <v/>
       </c>
       <c r="B107" s="13"/>
@@ -19291,7 +19266,7 @@
     </row>
     <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A158:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A157:A541,1), "")</f>
         <v/>
       </c>
       <c r="B108" s="13"/>
@@ -19302,7 +19277,7 @@
     </row>
     <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A158:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A157:A541,1), "")</f>
         <v/>
       </c>
       <c r="B109" s="13"/>
@@ -19313,7 +19288,7 @@
     </row>
     <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A158:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A157:A541,1), "")</f>
         <v/>
       </c>
       <c r="B110" s="13"/>
@@ -19324,7 +19299,7 @@
     </row>
     <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A158:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A157:A541,1), "")</f>
         <v/>
       </c>
       <c r="B111" s="13"/>
@@ -19335,7 +19310,7 @@
     </row>
     <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A158,Concepts!A158:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A157,Concepts!A157:A541,1), "")</f>
         <v/>
       </c>
       <c r="B112" s="13"/>
@@ -19346,7 +19321,7 @@
     </row>
     <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A159,Concepts!A159:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A158,Concepts!A158:A541,1), "")</f>
         <v/>
       </c>
       <c r="B113" s="13"/>
@@ -19357,7 +19332,7 @@
     </row>
     <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A160,Concepts!A160:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A159,Concepts!A159:A541,1), "")</f>
         <v/>
       </c>
       <c r="B114" s="13"/>
@@ -19368,7 +19343,7 @@
     </row>
     <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A162:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A161:A541,1), "")</f>
         <v/>
       </c>
       <c r="B115" s="13"/>
@@ -19379,7 +19354,7 @@
     </row>
     <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A162:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A161:A541,1), "")</f>
         <v/>
       </c>
       <c r="B116" s="13"/>
@@ -19390,7 +19365,7 @@
     </row>
     <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A162:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A161:A541,1), "")</f>
         <v/>
       </c>
       <c r="B117" s="13"/>
@@ -19401,7 +19376,7 @@
     </row>
     <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A162:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A161:A541,1), "")</f>
         <v/>
       </c>
       <c r="B118" s="13"/>
@@ -19412,7 +19387,7 @@
     </row>
     <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A162:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A161:A541,1), "")</f>
         <v/>
       </c>
       <c r="B119" s="13"/>
@@ -19423,7 +19398,7 @@
     </row>
     <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A162,Concepts!A162:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A161,Concepts!A161:A541,1), "")</f>
         <v/>
       </c>
       <c r="B120" s="13"/>
@@ -19434,7 +19409,7 @@
     </row>
     <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A163,Concepts!A163:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A162,Concepts!A162:A541,1), "")</f>
         <v/>
       </c>
       <c r="B121" s="13"/>
@@ -19445,7 +19420,7 @@
     </row>
     <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A164,Concepts!A164:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A163,Concepts!A163:A541,1), "")</f>
         <v/>
       </c>
       <c r="B122" s="13"/>
@@ -19456,7 +19431,7 @@
     </row>
     <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A165,Concepts!A165:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A164,Concepts!A164:A541,1), "")</f>
         <v/>
       </c>
       <c r="B123" s="13"/>
@@ -19467,7 +19442,7 @@
     </row>
     <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A166,Concepts!A166:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A165,Concepts!A165:A541,1), "")</f>
         <v/>
       </c>
       <c r="B124" s="13"/>
@@ -19478,7 +19453,7 @@
     </row>
     <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A167:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A166:A541,1), "")</f>
         <v/>
       </c>
       <c r="B125" s="13"/>
@@ -19489,7 +19464,7 @@
     </row>
     <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A174:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A173:A541,1), "")</f>
         <v/>
       </c>
       <c r="B126" s="13"/>
@@ -19500,7 +19475,7 @@
     </row>
     <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A174:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A173:A541,1), "")</f>
         <v/>
       </c>
       <c r="B127" s="13"/>
@@ -19511,7 +19486,7 @@
     </row>
     <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A174:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A173:A541,1), "")</f>
         <v/>
       </c>
       <c r="B128" s="13"/>
@@ -19522,7 +19497,7 @@
     </row>
     <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A174:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A173:A541,1), "")</f>
         <v/>
       </c>
       <c r="B129" s="13"/>
@@ -19533,7 +19508,7 @@
     </row>
     <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A174:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A173:A541,1), "")</f>
         <v/>
       </c>
       <c r="B130" s="13"/>
@@ -19544,7 +19519,7 @@
     </row>
     <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A174:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!#REF!,Concepts!A173:A541,1), "")</f>
         <v/>
       </c>
       <c r="B131" s="13"/>
@@ -19555,7 +19530,7 @@
     </row>
     <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A174,Concepts!A174:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A173,Concepts!A173:A541,1), "")</f>
         <v/>
       </c>
       <c r="B132" s="13"/>
@@ -19566,7 +19541,7 @@
     </row>
     <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A175,Concepts!A175:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A174,Concepts!A174:A541,1), "")</f>
         <v/>
       </c>
       <c r="B133" s="13"/>
@@ -19577,7 +19552,7 @@
     </row>
     <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A176,Concepts!A176:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A175,Concepts!A175:A541,1), "")</f>
         <v/>
       </c>
       <c r="B134" s="13"/>
@@ -19588,7 +19563,7 @@
     </row>
     <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A177,Concepts!A177:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A176,Concepts!A176:A541,1), "")</f>
         <v/>
       </c>
       <c r="B135" s="13"/>
@@ -19599,7 +19574,7 @@
     </row>
     <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A178,Concepts!A178:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A177,Concepts!A177:A541,1), "")</f>
         <v/>
       </c>
       <c r="B136" s="13"/>
@@ -19610,7 +19585,7 @@
     </row>
     <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A179,Concepts!A179:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A178,Concepts!A178:A541,1), "")</f>
         <v/>
       </c>
       <c r="B137" s="13"/>
@@ -19621,7 +19596,7 @@
     </row>
     <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A180,Concepts!A180:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A179,Concepts!A179:A541,1), "")</f>
         <v/>
       </c>
       <c r="B138" s="13"/>
@@ -19632,7 +19607,7 @@
     </row>
     <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A181,Concepts!A181:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A180,Concepts!A180:A541,1), "")</f>
         <v/>
       </c>
       <c r="B139" s="13"/>
@@ -19643,7 +19618,7 @@
     </row>
     <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A182,Concepts!A182:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A181,Concepts!A181:A541,1), "")</f>
         <v/>
       </c>
       <c r="B140" s="13"/>
@@ -19654,7 +19629,7 @@
     </row>
     <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A183,Concepts!A183:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A182,Concepts!A182:A541,1), "")</f>
         <v/>
       </c>
       <c r="B141" s="13"/>
@@ -19665,7 +19640,7 @@
     </row>
     <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A184,Concepts!A184:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A183,Concepts!A183:A541,1), "")</f>
         <v/>
       </c>
       <c r="B142" s="13"/>
@@ -19676,7 +19651,7 @@
     </row>
     <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A185,Concepts!A185:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A184,Concepts!A184:A541,1), "")</f>
         <v/>
       </c>
       <c r="B143" s="13"/>
@@ -19687,7 +19662,7 @@
     </row>
     <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A186,Concepts!A186:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A185,Concepts!A185:A541,1), "")</f>
         <v/>
       </c>
       <c r="B144" s="13"/>
@@ -19698,7 +19673,7 @@
     </row>
     <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A187,Concepts!A187:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A186,Concepts!A186:A541,1), "")</f>
         <v/>
       </c>
       <c r="B145" s="13"/>
@@ -19709,7 +19684,7 @@
     </row>
     <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A188,Concepts!A188:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A187,Concepts!A187:A541,1), "")</f>
         <v/>
       </c>
       <c r="B146" s="13"/>
@@ -19720,7 +19695,7 @@
     </row>
     <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A189,Concepts!A189:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A188,Concepts!A188:A541,1), "")</f>
         <v/>
       </c>
       <c r="B147" s="13"/>
@@ -19731,7 +19706,7 @@
     </row>
     <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A190,Concepts!A190:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A189,Concepts!A189:A541,1), "")</f>
         <v/>
       </c>
       <c r="B148" s="13"/>
@@ -19742,7 +19717,7 @@
     </row>
     <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A191,Concepts!A191:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A190,Concepts!A190:A541,1), "")</f>
         <v/>
       </c>
       <c r="B149" s="13"/>
@@ -19753,7 +19728,7 @@
     </row>
     <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A192,Concepts!A192:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A191,Concepts!A191:A541,1), "")</f>
         <v/>
       </c>
       <c r="B150" s="13"/>
@@ -19764,7 +19739,7 @@
     </row>
     <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A193,Concepts!A193:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A192,Concepts!A192:A541,1), "")</f>
         <v/>
       </c>
       <c r="B151" s="13"/>
@@ -19775,7 +19750,7 @@
     </row>
     <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A194,Concepts!A194:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A193,Concepts!A193:A541,1), "")</f>
         <v/>
       </c>
       <c r="B152" s="13"/>
@@ -19786,7 +19761,7 @@
     </row>
     <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A195,Concepts!A195:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A194,Concepts!A194:A541,1), "")</f>
         <v/>
       </c>
       <c r="B153" s="13"/>
@@ -19797,7 +19772,7 @@
     </row>
     <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A196,Concepts!A196:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A195,Concepts!A195:A541,1), "")</f>
         <v/>
       </c>
       <c r="B154" s="13"/>
@@ -19808,7 +19783,7 @@
     </row>
     <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A197,Concepts!A197:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A196,Concepts!A196:A541,1), "")</f>
         <v/>
       </c>
       <c r="B155" s="13"/>
@@ -19819,7 +19794,7 @@
     </row>
     <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A198,Concepts!A198:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A197,Concepts!A197:A541,1), "")</f>
         <v/>
       </c>
       <c r="B156" s="13"/>
@@ -19830,7 +19805,7 @@
     </row>
     <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A199,Concepts!A199:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A198,Concepts!A198:A541,1), "")</f>
         <v/>
       </c>
       <c r="B157" s="13"/>
@@ -19841,7 +19816,7 @@
     </row>
     <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A200,Concepts!A200:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A199,Concepts!A199:A541,1), "")</f>
         <v/>
       </c>
       <c r="B158" s="13"/>
@@ -19852,7 +19827,7 @@
     </row>
     <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A201,Concepts!A201:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A200,Concepts!A200:A541,1), "")</f>
         <v/>
       </c>
       <c r="B159" s="13"/>
@@ -19863,7 +19838,7 @@
     </row>
     <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A202,Concepts!A202:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A201,Concepts!A201:A541,1), "")</f>
         <v/>
       </c>
       <c r="B160" s="13"/>
@@ -19874,7 +19849,7 @@
     </row>
     <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A203,Concepts!A203:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A202,Concepts!A202:A541,1), "")</f>
         <v/>
       </c>
       <c r="B161" s="13"/>
@@ -19885,7 +19860,7 @@
     </row>
     <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A204,Concepts!A204:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A203,Concepts!A203:A541,1), "")</f>
         <v/>
       </c>
       <c r="B162" s="13"/>
@@ -19896,7 +19871,7 @@
     </row>
     <row r="163" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A205,Concepts!A205:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A204,Concepts!A204:A541,1), "")</f>
         <v/>
       </c>
       <c r="B163" s="13"/>
@@ -19907,7 +19882,7 @@
     </row>
     <row r="164" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A206,Concepts!A206:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A205,Concepts!A205:A541,1), "")</f>
         <v/>
       </c>
       <c r="B164" s="13"/>
@@ -19918,7 +19893,7 @@
     </row>
     <row r="165" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A207,Concepts!A207:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A206,Concepts!A206:A541,1), "")</f>
         <v/>
       </c>
       <c r="B165" s="13"/>
@@ -19929,7 +19904,7 @@
     </row>
     <row r="166" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A208,Concepts!A208:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A207,Concepts!A207:A541,1), "")</f>
         <v/>
       </c>
       <c r="B166" s="13"/>
@@ -19940,7 +19915,7 @@
     </row>
     <row r="167" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A209,Concepts!A209:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A208,Concepts!A208:A541,1), "")</f>
         <v/>
       </c>
       <c r="B167" s="13"/>
@@ -19951,7 +19926,7 @@
     </row>
     <row r="168" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A210,Concepts!A210:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A209,Concepts!A209:A541,1), "")</f>
         <v/>
       </c>
       <c r="B168" s="13"/>
@@ -19962,7 +19937,7 @@
     </row>
     <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A211,Concepts!A211:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A210,Concepts!A210:A541,1), "")</f>
         <v/>
       </c>
       <c r="B169" s="13"/>
@@ -19973,7 +19948,7 @@
     </row>
     <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A212,Concepts!A212:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A211,Concepts!A211:A541,1), "")</f>
         <v/>
       </c>
       <c r="B170" s="13"/>
@@ -19984,7 +19959,7 @@
     </row>
     <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A213,Concepts!A213:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A212,Concepts!A212:A541,1), "")</f>
         <v/>
       </c>
       <c r="B171" s="13"/>
@@ -19995,7 +19970,7 @@
     </row>
     <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A214,Concepts!A214:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A213,Concepts!A213:A541,1), "")</f>
         <v/>
       </c>
       <c r="B172" s="13"/>
@@ -20006,7 +19981,7 @@
     </row>
     <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A215,Concepts!A215:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A214,Concepts!A214:A541,1), "")</f>
         <v/>
       </c>
       <c r="B173" s="13"/>
@@ -20017,7 +19992,7 @@
     </row>
     <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A216,Concepts!A216:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A215,Concepts!A215:A541,1), "")</f>
         <v/>
       </c>
       <c r="B174" s="13"/>
@@ -20028,7 +20003,7 @@
     </row>
     <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A217,Concepts!A217:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A216,Concepts!A216:A541,1), "")</f>
         <v/>
       </c>
       <c r="B175" s="13"/>
@@ -20039,7 +20014,7 @@
     </row>
     <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A218,Concepts!A218:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A217,Concepts!A217:A541,1), "")</f>
         <v/>
       </c>
       <c r="B176" s="13"/>
@@ -20050,7 +20025,7 @@
     </row>
     <row r="177" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A219,Concepts!A219:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A218,Concepts!A218:A541,1), "")</f>
         <v/>
       </c>
       <c r="B177" s="13"/>
@@ -20061,7 +20036,7 @@
     </row>
     <row r="178" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A220,Concepts!A220:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A219,Concepts!A219:A541,1), "")</f>
         <v/>
       </c>
       <c r="B178" s="13"/>
@@ -20072,7 +20047,7 @@
     </row>
     <row r="179" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A221,Concepts!A221:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A220,Concepts!A220:A541,1), "")</f>
         <v/>
       </c>
       <c r="B179" s="13"/>
@@ -20083,7 +20058,7 @@
     </row>
     <row r="180" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A222,Concepts!A222:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A221,Concepts!A221:A541,1), "")</f>
         <v/>
       </c>
       <c r="B180" s="13"/>
@@ -20094,7 +20069,7 @@
     </row>
     <row r="181" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A223,Concepts!A223:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A222,Concepts!A222:A541,1), "")</f>
         <v/>
       </c>
       <c r="B181" s="13"/>
@@ -20105,7 +20080,7 @@
     </row>
     <row r="182" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A224,Concepts!A224:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A223,Concepts!A223:A541,1), "")</f>
         <v/>
       </c>
       <c r="B182" s="13"/>
@@ -20116,7 +20091,7 @@
     </row>
     <row r="183" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A225,Concepts!A225:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A224,Concepts!A224:A541,1), "")</f>
         <v/>
       </c>
       <c r="B183" s="13"/>
@@ -20127,7 +20102,7 @@
     </row>
     <row r="184" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A226,Concepts!A226:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A225,Concepts!A225:A541,1), "")</f>
         <v/>
       </c>
       <c r="B184" s="13"/>
@@ -20138,7 +20113,7 @@
     </row>
     <row r="185" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A227,Concepts!A227:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A226,Concepts!A226:A541,1), "")</f>
         <v/>
       </c>
       <c r="B185" s="13"/>
@@ -20149,7 +20124,7 @@
     </row>
     <row r="186" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A228,Concepts!A228:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A227,Concepts!A227:A541,1), "")</f>
         <v/>
       </c>
       <c r="B186" s="13"/>
@@ -20160,7 +20135,7 @@
     </row>
     <row r="187" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A229,Concepts!A229:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A228,Concepts!A228:A541,1), "")</f>
         <v/>
       </c>
       <c r="B187" s="13"/>
@@ -20171,7 +20146,7 @@
     </row>
     <row r="188" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A230,Concepts!A230:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A229,Concepts!A229:A541,1), "")</f>
         <v/>
       </c>
       <c r="B188" s="13"/>
@@ -20182,7 +20157,7 @@
     </row>
     <row r="189" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A231,Concepts!A231:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A230,Concepts!A230:A541,1), "")</f>
         <v/>
       </c>
       <c r="B189" s="13"/>
@@ -20193,7 +20168,7 @@
     </row>
     <row r="190" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A232,Concepts!A232:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A231,Concepts!A231:A541,1), "")</f>
         <v/>
       </c>
       <c r="B190" s="13"/>
@@ -20204,7 +20179,7 @@
     </row>
     <row r="191" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A233,Concepts!A233:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A232,Concepts!A232:A541,1), "")</f>
         <v/>
       </c>
       <c r="B191" s="13"/>
@@ -20215,7 +20190,7 @@
     </row>
     <row r="192" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A234,Concepts!A234:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A233,Concepts!A233:A541,1), "")</f>
         <v/>
       </c>
       <c r="B192" s="13"/>
@@ -20226,7 +20201,7 @@
     </row>
     <row r="193" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A235,Concepts!A235:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A234,Concepts!A234:A541,1), "")</f>
         <v/>
       </c>
       <c r="B193" s="13"/>
@@ -20237,7 +20212,7 @@
     </row>
     <row r="194" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A236,Concepts!A236:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A235,Concepts!A235:A541,1), "")</f>
         <v/>
       </c>
       <c r="B194" s="13"/>
@@ -20248,7 +20223,7 @@
     </row>
     <row r="195" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A237,Concepts!A237:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A236,Concepts!A236:A541,1), "")</f>
         <v/>
       </c>
       <c r="B195" s="13"/>
@@ -20259,7 +20234,7 @@
     </row>
     <row r="196" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A238,Concepts!A238:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A237,Concepts!A237:A541,1), "")</f>
         <v/>
       </c>
       <c r="B196" s="13"/>
@@ -20270,7 +20245,7 @@
     </row>
     <row r="197" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A239,Concepts!A239:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A238,Concepts!A238:A541,1), "")</f>
         <v/>
       </c>
       <c r="B197" s="13"/>
@@ -20281,7 +20256,7 @@
     </row>
     <row r="198" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A240,Concepts!A240:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A239,Concepts!A239:A541,1), "")</f>
         <v/>
       </c>
       <c r="B198" s="13"/>
@@ -20292,7 +20267,7 @@
     </row>
     <row r="199" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A241,Concepts!A241:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A240,Concepts!A240:A541,1), "")</f>
         <v/>
       </c>
       <c r="B199" s="13"/>
@@ -20303,7 +20278,7 @@
     </row>
     <row r="200" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A242,Concepts!A242:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A241,Concepts!A241:A541,1), "")</f>
         <v/>
       </c>
       <c r="B200" s="13"/>
@@ -20314,7 +20289,7 @@
     </row>
     <row r="201" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A243,Concepts!A243:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A242,Concepts!A242:A541,1), "")</f>
         <v/>
       </c>
       <c r="B201" s="13"/>
@@ -20325,7 +20300,7 @@
     </row>
     <row r="202" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A244,Concepts!A244:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A243,Concepts!A243:A541,1), "")</f>
         <v/>
       </c>
       <c r="B202" s="13"/>
@@ -20336,7 +20311,7 @@
     </row>
     <row r="203" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A245,Concepts!A245:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A244,Concepts!A244:A541,1), "")</f>
         <v/>
       </c>
       <c r="B203" s="13"/>
@@ -20347,7 +20322,7 @@
     </row>
     <row r="204" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A246,Concepts!A246:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A245,Concepts!A245:A541,1), "")</f>
         <v/>
       </c>
       <c r="B204" s="13"/>
@@ -20358,7 +20333,7 @@
     </row>
     <row r="205" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A247,Concepts!A247:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A246,Concepts!A246:A541,1), "")</f>
         <v/>
       </c>
       <c r="B205" s="13"/>
@@ -20369,7 +20344,7 @@
     </row>
     <row r="206" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A248,Concepts!A248:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A247,Concepts!A247:A541,1), "")</f>
         <v/>
       </c>
       <c r="B206" s="13"/>
@@ -20380,7 +20355,7 @@
     </row>
     <row r="207" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A249,Concepts!A249:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A248,Concepts!A248:A541,1), "")</f>
         <v/>
       </c>
       <c r="B207" s="13"/>
@@ -20391,7 +20366,7 @@
     </row>
     <row r="208" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A250,Concepts!A250:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A249,Concepts!A249:A541,1), "")</f>
         <v/>
       </c>
       <c r="B208" s="13"/>
@@ -20402,7 +20377,7 @@
     </row>
     <row r="209" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A251,Concepts!A251:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A250,Concepts!A250:A541,1), "")</f>
         <v/>
       </c>
       <c r="B209" s="13"/>
@@ -20413,7 +20388,7 @@
     </row>
     <row r="210" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A252,Concepts!A252:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A251,Concepts!A251:A541,1), "")</f>
         <v/>
       </c>
       <c r="B210" s="13"/>
@@ -20424,7 +20399,7 @@
     </row>
     <row r="211" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A253,Concepts!A253:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A252,Concepts!A252:A541,1), "")</f>
         <v/>
       </c>
       <c r="B211" s="13"/>
@@ -20435,7 +20410,7 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A254,Concepts!A254:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A253,Concepts!A253:A541,1), "")</f>
         <v/>
       </c>
       <c r="B212" s="13"/>
@@ -20446,7 +20421,7 @@
     </row>
     <row r="213" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A255,Concepts!A255:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A254,Concepts!A254:A541,1), "")</f>
         <v/>
       </c>
       <c r="B213" s="13"/>
@@ -20457,7 +20432,7 @@
     </row>
     <row r="214" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A256,Concepts!A256:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A255,Concepts!A255:A541,1), "")</f>
         <v/>
       </c>
       <c r="B214" s="13"/>
@@ -20468,7 +20443,7 @@
     </row>
     <row r="215" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A257,Concepts!A257:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A256,Concepts!A256:A541,1), "")</f>
         <v/>
       </c>
       <c r="B215" s="13"/>
@@ -20479,7 +20454,7 @@
     </row>
     <row r="216" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A258,Concepts!A258:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A257,Concepts!A257:A541,1), "")</f>
         <v/>
       </c>
       <c r="B216" s="13"/>
@@ -20490,7 +20465,7 @@
     </row>
     <row r="217" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A259,Concepts!A259:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A258,Concepts!A258:A541,1), "")</f>
         <v/>
       </c>
       <c r="B217" s="13"/>
@@ -20501,7 +20476,7 @@
     </row>
     <row r="218" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A260,Concepts!A260:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A259,Concepts!A259:A541,1), "")</f>
         <v/>
       </c>
       <c r="B218" s="13"/>
@@ -20512,7 +20487,7 @@
     </row>
     <row r="219" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A261,Concepts!A261:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A260,Concepts!A260:A541,1), "")</f>
         <v/>
       </c>
       <c r="B219" s="13"/>
@@ -20523,7 +20498,7 @@
     </row>
     <row r="220" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A262,Concepts!A262:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A261,Concepts!A261:A541,1), "")</f>
         <v/>
       </c>
       <c r="B220" s="13"/>
@@ -20534,7 +20509,7 @@
     </row>
     <row r="221" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A263,Concepts!A263:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A262,Concepts!A262:A541,1), "")</f>
         <v/>
       </c>
       <c r="B221" s="13"/>
@@ -20545,7 +20520,7 @@
     </row>
     <row r="222" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A264,Concepts!A264:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A263,Concepts!A263:A541,1), "")</f>
         <v/>
       </c>
       <c r="B222" s="13"/>
@@ -20556,7 +20531,7 @@
     </row>
     <row r="223" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A265,Concepts!A265:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A264,Concepts!A264:A541,1), "")</f>
         <v/>
       </c>
       <c r="B223" s="13"/>
@@ -20567,7 +20542,7 @@
     </row>
     <row r="224" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A266,Concepts!A266:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A265,Concepts!A265:A541,1), "")</f>
         <v/>
       </c>
       <c r="B224" s="13"/>
@@ -20578,7 +20553,7 @@
     </row>
     <row r="225" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A267,Concepts!A267:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A266,Concepts!A266:A541,1), "")</f>
         <v/>
       </c>
       <c r="B225" s="13"/>
@@ -20589,7 +20564,7 @@
     </row>
     <row r="226" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A268,Concepts!A268:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A267,Concepts!A267:A541,1), "")</f>
         <v/>
       </c>
       <c r="B226" s="13"/>
@@ -20600,7 +20575,7 @@
     </row>
     <row r="227" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A269,Concepts!A269:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A268,Concepts!A268:A541,1), "")</f>
         <v/>
       </c>
       <c r="B227" s="13"/>
@@ -20611,7 +20586,7 @@
     </row>
     <row r="228" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A270,Concepts!A270:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A269,Concepts!A269:A541,1), "")</f>
         <v/>
       </c>
       <c r="B228" s="13"/>
@@ -20622,7 +20597,7 @@
     </row>
     <row r="229" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A271,Concepts!A271:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A270,Concepts!A270:A541,1), "")</f>
         <v/>
       </c>
       <c r="B229" s="13"/>
@@ -20633,7 +20608,7 @@
     </row>
     <row r="230" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A272,Concepts!A272:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A271,Concepts!A271:A541,1), "")</f>
         <v/>
       </c>
       <c r="B230" s="13"/>
@@ -20644,7 +20619,7 @@
     </row>
     <row r="231" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A273,Concepts!A273:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A272,Concepts!A272:A541,1), "")</f>
         <v/>
       </c>
       <c r="B231" s="13"/>
@@ -20655,7 +20630,7 @@
     </row>
     <row r="232" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A274,Concepts!A274:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A273,Concepts!A273:A541,1), "")</f>
         <v/>
       </c>
       <c r="B232" s="13"/>
@@ -20666,7 +20641,7 @@
     </row>
     <row r="233" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A275,Concepts!A275:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A274,Concepts!A274:A541,1), "")</f>
         <v/>
       </c>
       <c r="B233" s="13"/>
@@ -20677,7 +20652,7 @@
     </row>
     <row r="234" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A276,Concepts!A276:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A275,Concepts!A275:A541,1), "")</f>
         <v/>
       </c>
       <c r="B234" s="13"/>
@@ -20688,7 +20663,7 @@
     </row>
     <row r="235" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A277,Concepts!A277:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A276,Concepts!A276:A541,1), "")</f>
         <v/>
       </c>
       <c r="B235" s="13"/>
@@ -20699,7 +20674,7 @@
     </row>
     <row r="236" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A278,Concepts!A278:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A277,Concepts!A277:A541,1), "")</f>
         <v/>
       </c>
       <c r="B236" s="13"/>
@@ -20710,7 +20685,7 @@
     </row>
     <row r="237" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A279,Concepts!A279:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A278,Concepts!A278:A541,1), "")</f>
         <v/>
       </c>
       <c r="B237" s="13"/>
@@ -20721,7 +20696,7 @@
     </row>
     <row r="238" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A280,Concepts!A280:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A279,Concepts!A279:A541,1), "")</f>
         <v/>
       </c>
       <c r="B238" s="13"/>
@@ -20732,7 +20707,7 @@
     </row>
     <row r="239" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A281,Concepts!A281:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A280,Concepts!A280:A541,1), "")</f>
         <v/>
       </c>
       <c r="B239" s="13"/>
@@ -20743,7 +20718,7 @@
     </row>
     <row r="240" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A282,Concepts!A282:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A281,Concepts!A281:A541,1), "")</f>
         <v/>
       </c>
       <c r="B240" s="13"/>
@@ -20754,7 +20729,7 @@
     </row>
     <row r="241" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A283,Concepts!A283:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A282,Concepts!A282:A541,1), "")</f>
         <v/>
       </c>
       <c r="B241" s="13"/>
@@ -20765,7 +20740,7 @@
     </row>
     <row r="242" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A284,Concepts!A284:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A283,Concepts!A283:A541,1), "")</f>
         <v/>
       </c>
       <c r="B242" s="13"/>
@@ -20776,7 +20751,7 @@
     </row>
     <row r="243" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A285,Concepts!A285:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A284,Concepts!A284:A541,1), "")</f>
         <v/>
       </c>
       <c r="B243" s="13"/>
@@ -20787,7 +20762,7 @@
     </row>
     <row r="244" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A286,Concepts!A286:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A285,Concepts!A285:A541,1), "")</f>
         <v/>
       </c>
       <c r="B244" s="13"/>
@@ -20798,7 +20773,7 @@
     </row>
     <row r="245" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A287,Concepts!A287:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A286,Concepts!A286:A541,1), "")</f>
         <v/>
       </c>
       <c r="B245" s="13"/>
@@ -20809,7 +20784,7 @@
     </row>
     <row r="246" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A288,Concepts!A288:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A287,Concepts!A287:A541,1), "")</f>
         <v/>
       </c>
       <c r="B246" s="13"/>
@@ -20820,7 +20795,7 @@
     </row>
     <row r="247" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A289,Concepts!A289:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A288,Concepts!A288:A541,1), "")</f>
         <v/>
       </c>
       <c r="B247" s="13"/>
@@ -20831,7 +20806,7 @@
     </row>
     <row r="248" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A290,Concepts!A290:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A289,Concepts!A289:A541,1), "")</f>
         <v/>
       </c>
       <c r="B248" s="13"/>
@@ -20842,7 +20817,7 @@
     </row>
     <row r="249" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A291,Concepts!A291:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A290,Concepts!A290:A541,1), "")</f>
         <v/>
       </c>
       <c r="B249" s="13"/>
@@ -20853,7 +20828,7 @@
     </row>
     <row r="250" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A292,Concepts!A292:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A291,Concepts!A291:A541,1), "")</f>
         <v/>
       </c>
       <c r="B250" s="13"/>
@@ -20864,7 +20839,7 @@
     </row>
     <row r="251" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A293,Concepts!A293:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A292,Concepts!A292:A541,1), "")</f>
         <v/>
       </c>
       <c r="B251" s="13"/>
@@ -20875,7 +20850,7 @@
     </row>
     <row r="252" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A294,Concepts!A294:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A293,Concepts!A293:A541,1), "")</f>
         <v/>
       </c>
       <c r="B252" s="13"/>
@@ -20886,7 +20861,7 @@
     </row>
     <row r="253" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A295,Concepts!A295:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A294,Concepts!A294:A541,1), "")</f>
         <v/>
       </c>
       <c r="B253" s="13"/>
@@ -20897,7 +20872,7 @@
     </row>
     <row r="254" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A296,Concepts!A296:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A295,Concepts!A295:A541,1), "")</f>
         <v/>
       </c>
       <c r="B254" s="13"/>
@@ -20908,7 +20883,7 @@
     </row>
     <row r="255" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A297,Concepts!A297:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A296,Concepts!A296:A541,1), "")</f>
         <v/>
       </c>
       <c r="B255" s="13"/>
@@ -20919,7 +20894,7 @@
     </row>
     <row r="256" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A298,Concepts!A298:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A297,Concepts!A297:A541,1), "")</f>
         <v/>
       </c>
       <c r="B256" s="13"/>
@@ -20930,7 +20905,7 @@
     </row>
     <row r="257" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A299,Concepts!A299:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A298,Concepts!A298:A541,1), "")</f>
         <v/>
       </c>
       <c r="B257" s="13"/>
@@ -20941,7 +20916,7 @@
     </row>
     <row r="258" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A300,Concepts!A300:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A299,Concepts!A299:A541,1), "")</f>
         <v/>
       </c>
       <c r="B258" s="13"/>
@@ -20952,7 +20927,7 @@
     </row>
     <row r="259" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A301,Concepts!A301:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A300,Concepts!A300:A541,1), "")</f>
         <v/>
       </c>
       <c r="B259" s="13"/>
@@ -20963,7 +20938,7 @@
     </row>
     <row r="260" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A302,Concepts!A302:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A301,Concepts!A301:A541,1), "")</f>
         <v/>
       </c>
       <c r="B260" s="13"/>
@@ -20974,7 +20949,7 @@
     </row>
     <row r="261" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A303,Concepts!A303:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A302,Concepts!A302:A541,1), "")</f>
         <v/>
       </c>
       <c r="B261" s="13"/>
@@ -20985,7 +20960,7 @@
     </row>
     <row r="262" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A304,Concepts!A304:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A303,Concepts!A303:A541,1), "")</f>
         <v/>
       </c>
       <c r="B262" s="13"/>
@@ -20996,7 +20971,7 @@
     </row>
     <row r="263" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A305,Concepts!A305:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A304,Concepts!A304:A541,1), "")</f>
         <v/>
       </c>
       <c r="B263" s="13"/>
@@ -21007,7 +20982,7 @@
     </row>
     <row r="264" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A306,Concepts!A306:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A305,Concepts!A305:A541,1), "")</f>
         <v/>
       </c>
       <c r="B264" s="13"/>
@@ -21018,7 +20993,7 @@
     </row>
     <row r="265" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A307,Concepts!A307:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A306,Concepts!A306:A541,1), "")</f>
         <v/>
       </c>
       <c r="B265" s="13"/>
@@ -21029,7 +21004,7 @@
     </row>
     <row r="266" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A308,Concepts!A308:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A307,Concepts!A307:A541,1), "")</f>
         <v/>
       </c>
       <c r="B266" s="13"/>
@@ -21040,7 +21015,7 @@
     </row>
     <row r="267" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A309,Concepts!A309:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A308,Concepts!A308:A541,1), "")</f>
         <v/>
       </c>
       <c r="B267" s="13"/>
@@ -21051,7 +21026,7 @@
     </row>
     <row r="268" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A310,Concepts!A310:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A309,Concepts!A309:A541,1), "")</f>
         <v/>
       </c>
       <c r="B268" s="13"/>
@@ -21062,7 +21037,7 @@
     </row>
     <row r="269" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A311,Concepts!A311:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A310,Concepts!A310:A541,1), "")</f>
         <v/>
       </c>
       <c r="B269" s="13"/>
@@ -21073,7 +21048,7 @@
     </row>
     <row r="270" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A312,Concepts!A312:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A311,Concepts!A311:A541,1), "")</f>
         <v/>
       </c>
       <c r="B270" s="13"/>
@@ -21084,7 +21059,7 @@
     </row>
     <row r="271" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A313,Concepts!A313:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A312,Concepts!A312:A541,1), "")</f>
         <v/>
       </c>
       <c r="B271" s="13"/>
@@ -21095,7 +21070,7 @@
     </row>
     <row r="272" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A314,Concepts!A314:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A313,Concepts!A313:A541,1), "")</f>
         <v/>
       </c>
       <c r="B272" s="13"/>
@@ -21106,7 +21081,7 @@
     </row>
     <row r="273" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A315,Concepts!A315:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A314,Concepts!A314:A541,1), "")</f>
         <v/>
       </c>
       <c r="B273" s="13"/>
@@ -21117,7 +21092,7 @@
     </row>
     <row r="274" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A316,Concepts!A316:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A315,Concepts!A315:A541,1), "")</f>
         <v/>
       </c>
       <c r="B274" s="13"/>
@@ -21128,7 +21103,7 @@
     </row>
     <row r="275" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A317,Concepts!A317:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A316,Concepts!A316:A541,1), "")</f>
         <v/>
       </c>
       <c r="B275" s="13"/>
@@ -21139,7 +21114,7 @@
     </row>
     <row r="276" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A318,Concepts!A318:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A317,Concepts!A317:A541,1), "")</f>
         <v/>
       </c>
       <c r="B276" s="13"/>
@@ -21150,7 +21125,7 @@
     </row>
     <row r="277" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A319,Concepts!A319:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A318,Concepts!A318:A541,1), "")</f>
         <v/>
       </c>
       <c r="B277" s="13"/>
@@ -21161,7 +21136,7 @@
     </row>
     <row r="278" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A320,Concepts!A320:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A319,Concepts!A319:A541,1), "")</f>
         <v/>
       </c>
       <c r="B278" s="13"/>
@@ -21172,7 +21147,7 @@
     </row>
     <row r="279" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A321,Concepts!A321:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A320,Concepts!A320:A541,1), "")</f>
         <v/>
       </c>
       <c r="B279" s="13"/>
@@ -21183,7 +21158,7 @@
     </row>
     <row r="280" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A322,Concepts!A322:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A321,Concepts!A321:A541,1), "")</f>
         <v/>
       </c>
       <c r="B280" s="13"/>
@@ -21194,7 +21169,7 @@
     </row>
     <row r="281" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A323,Concepts!A323:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A322,Concepts!A322:A541,1), "")</f>
         <v/>
       </c>
       <c r="B281" s="13"/>
@@ -21205,7 +21180,7 @@
     </row>
     <row r="282" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A324,Concepts!A324:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A323,Concepts!A323:A541,1), "")</f>
         <v/>
       </c>
       <c r="B282" s="13"/>
@@ -21216,7 +21191,7 @@
     </row>
     <row r="283" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A325,Concepts!A325:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A324,Concepts!A324:A541,1), "")</f>
         <v/>
       </c>
       <c r="B283" s="13"/>
@@ -21227,7 +21202,7 @@
     </row>
     <row r="284" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A326,Concepts!A326:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A325,Concepts!A325:A541,1), "")</f>
         <v/>
       </c>
       <c r="B284" s="13"/>
@@ -21238,7 +21213,7 @@
     </row>
     <row r="285" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A327,Concepts!A327:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A326,Concepts!A326:A541,1), "")</f>
         <v/>
       </c>
       <c r="B285" s="13"/>
@@ -21249,7 +21224,7 @@
     </row>
     <row r="286" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A328,Concepts!A328:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A327,Concepts!A327:A541,1), "")</f>
         <v/>
       </c>
       <c r="B286" s="13"/>
@@ -21260,7 +21235,7 @@
     </row>
     <row r="287" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A329,Concepts!A329:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A328,Concepts!A328:A541,1), "")</f>
         <v/>
       </c>
       <c r="B287" s="13"/>
@@ -21271,7 +21246,7 @@
     </row>
     <row r="288" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A330,Concepts!A330:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A329,Concepts!A329:A541,1), "")</f>
         <v/>
       </c>
       <c r="B288" s="13"/>
@@ -21282,7 +21257,7 @@
     </row>
     <row r="289" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A331,Concepts!A331:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A330,Concepts!A330:A541,1), "")</f>
         <v/>
       </c>
       <c r="B289" s="13"/>
@@ -21293,7 +21268,7 @@
     </row>
     <row r="290" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A332,Concepts!A332:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A331,Concepts!A331:A541,1), "")</f>
         <v/>
       </c>
       <c r="B290" s="13"/>
@@ -21304,7 +21279,7 @@
     </row>
     <row r="291" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A333,Concepts!A333:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A332,Concepts!A332:A541,1), "")</f>
         <v/>
       </c>
       <c r="B291" s="13"/>
@@ -21315,7 +21290,7 @@
     </row>
     <row r="292" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A334,Concepts!A334:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A333,Concepts!A333:A541,1), "")</f>
         <v/>
       </c>
       <c r="B292" s="13"/>
@@ -21326,7 +21301,7 @@
     </row>
     <row r="293" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A335,Concepts!A335:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A334,Concepts!A334:A541,1), "")</f>
         <v/>
       </c>
       <c r="B293" s="13"/>
@@ -21337,7 +21312,7 @@
     </row>
     <row r="294" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A336,Concepts!A336:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A335,Concepts!A335:A541,1), "")</f>
         <v/>
       </c>
       <c r="B294" s="13"/>
@@ -21348,7 +21323,7 @@
     </row>
     <row r="295" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A337,Concepts!A337:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A336,Concepts!A336:A541,1), "")</f>
         <v/>
       </c>
       <c r="B295" s="13"/>
@@ -21359,7 +21334,7 @@
     </row>
     <row r="296" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A338,Concepts!A338:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A337,Concepts!A337:A541,1), "")</f>
         <v/>
       </c>
       <c r="B296" s="13"/>
@@ -21370,7 +21345,7 @@
     </row>
     <row r="297" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A339,Concepts!A339:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A338,Concepts!A338:A541,1), "")</f>
         <v/>
       </c>
       <c r="B297" s="13"/>
@@ -21381,7 +21356,7 @@
     </row>
     <row r="298" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A340,Concepts!A340:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A339,Concepts!A339:A541,1), "")</f>
         <v/>
       </c>
       <c r="B298" s="13"/>
@@ -21392,7 +21367,7 @@
     </row>
     <row r="299" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A341,Concepts!A341:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A340,Concepts!A340:A541,1), "")</f>
         <v/>
       </c>
       <c r="B299" s="13"/>
@@ -21403,7 +21378,7 @@
     </row>
     <row r="300" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A342,Concepts!A342:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A341,Concepts!A341:A541,1), "")</f>
         <v/>
       </c>
       <c r="B300" s="13"/>
@@ -21414,7 +21389,7 @@
     </row>
     <row r="301" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A343,Concepts!A343:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A342,Concepts!A342:A541,1), "")</f>
         <v/>
       </c>
       <c r="B301" s="13"/>
@@ -21425,7 +21400,7 @@
     </row>
     <row r="302" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A344,Concepts!A344:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A343,Concepts!A343:A541,1), "")</f>
         <v/>
       </c>
       <c r="B302" s="13"/>
@@ -21436,7 +21411,7 @@
     </row>
     <row r="303" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A345,Concepts!A345:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A344,Concepts!A344:A541,1), "")</f>
         <v/>
       </c>
       <c r="B303" s="13"/>
@@ -21447,7 +21422,7 @@
     </row>
     <row r="304" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A346,Concepts!A346:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A345,Concepts!A345:A541,1), "")</f>
         <v/>
       </c>
       <c r="B304" s="13"/>
@@ -21458,7 +21433,7 @@
     </row>
     <row r="305" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A347,Concepts!A347:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A346,Concepts!A346:A541,1), "")</f>
         <v/>
       </c>
       <c r="B305" s="13"/>
@@ -21469,7 +21444,7 @@
     </row>
     <row r="306" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A348,Concepts!A348:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A347,Concepts!A347:A541,1), "")</f>
         <v/>
       </c>
       <c r="B306" s="13"/>
@@ -21480,7 +21455,7 @@
     </row>
     <row r="307" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A349,Concepts!A349:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A348,Concepts!A348:A541,1), "")</f>
         <v/>
       </c>
       <c r="B307" s="13"/>
@@ -21491,7 +21466,7 @@
     </row>
     <row r="308" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A350,Concepts!A350:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A349,Concepts!A349:A541,1), "")</f>
         <v/>
       </c>
       <c r="B308" s="13"/>
@@ -21502,7 +21477,7 @@
     </row>
     <row r="309" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A351,Concepts!A351:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A350,Concepts!A350:A541,1), "")</f>
         <v/>
       </c>
       <c r="B309" s="13"/>
@@ -21513,7 +21488,7 @@
     </row>
     <row r="310" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A352,Concepts!A352:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A351,Concepts!A351:A541,1), "")</f>
         <v/>
       </c>
       <c r="B310" s="13"/>
@@ -21524,7 +21499,7 @@
     </row>
     <row r="311" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A353,Concepts!A353:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A352,Concepts!A352:A541,1), "")</f>
         <v/>
       </c>
       <c r="B311" s="13"/>
@@ -21535,7 +21510,7 @@
     </row>
     <row r="312" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A354,Concepts!A354:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A353,Concepts!A353:A541,1), "")</f>
         <v/>
       </c>
       <c r="B312" s="13"/>
@@ -21546,7 +21521,7 @@
     </row>
     <row r="313" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A355,Concepts!A355:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A354,Concepts!A354:A541,1), "")</f>
         <v/>
       </c>
       <c r="B313" s="13"/>
@@ -21557,7 +21532,7 @@
     </row>
     <row r="314" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A356,Concepts!A356:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A355,Concepts!A355:A541,1), "")</f>
         <v/>
       </c>
       <c r="B314" s="13"/>
@@ -21568,7 +21543,7 @@
     </row>
     <row r="315" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A357,Concepts!A357:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A356,Concepts!A356:A541,1), "")</f>
         <v/>
       </c>
       <c r="B315" s="13"/>
@@ -21579,7 +21554,7 @@
     </row>
     <row r="316" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A358,Concepts!A358:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A357,Concepts!A357:A541,1), "")</f>
         <v/>
       </c>
       <c r="B316" s="13"/>
@@ -21590,7 +21565,7 @@
     </row>
     <row r="317" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A359,Concepts!A359:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A358,Concepts!A358:A541,1), "")</f>
         <v/>
       </c>
       <c r="B317" s="13"/>
@@ -21601,7 +21576,7 @@
     </row>
     <row r="318" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A360,Concepts!A360:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A359,Concepts!A359:A541,1), "")</f>
         <v/>
       </c>
       <c r="B318" s="13"/>
@@ -21612,7 +21587,7 @@
     </row>
     <row r="319" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A361,Concepts!A361:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A360,Concepts!A360:A541,1), "")</f>
         <v/>
       </c>
       <c r="B319" s="13"/>
@@ -21623,7 +21598,7 @@
     </row>
     <row r="320" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A362,Concepts!A362:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A361,Concepts!A361:A541,1), "")</f>
         <v/>
       </c>
       <c r="B320" s="13"/>
@@ -21634,7 +21609,7 @@
     </row>
     <row r="321" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A363,Concepts!A363:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A362,Concepts!A362:A541,1), "")</f>
         <v/>
       </c>
       <c r="B321" s="13"/>
@@ -21645,7 +21620,7 @@
     </row>
     <row r="322" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A364,Concepts!A364:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A363,Concepts!A363:A541,1), "")</f>
         <v/>
       </c>
       <c r="B322" s="13"/>
@@ -21656,7 +21631,7 @@
     </row>
     <row r="323" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A365,Concepts!A365:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A364,Concepts!A364:A541,1), "")</f>
         <v/>
       </c>
       <c r="B323" s="13"/>
@@ -21667,7 +21642,7 @@
     </row>
     <row r="324" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A366,Concepts!A366:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A365,Concepts!A365:A541,1), "")</f>
         <v/>
       </c>
       <c r="B324" s="13"/>
@@ -21678,7 +21653,7 @@
     </row>
     <row r="325" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A367,Concepts!A367:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A366,Concepts!A366:A541,1), "")</f>
         <v/>
       </c>
       <c r="B325" s="13"/>
@@ -21689,7 +21664,7 @@
     </row>
     <row r="326" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A368,Concepts!A368:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A367,Concepts!A367:A541,1), "")</f>
         <v/>
       </c>
       <c r="B326" s="13"/>
@@ -21700,7 +21675,7 @@
     </row>
     <row r="327" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A369,Concepts!A369:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A368,Concepts!A368:A541,1), "")</f>
         <v/>
       </c>
       <c r="B327" s="13"/>
@@ -21711,7 +21686,7 @@
     </row>
     <row r="328" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A370,Concepts!A370:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A369,Concepts!A369:A541,1), "")</f>
         <v/>
       </c>
       <c r="B328" s="13"/>
@@ -21722,7 +21697,7 @@
     </row>
     <row r="329" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A371,Concepts!A371:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A370,Concepts!A370:A541,1), "")</f>
         <v/>
       </c>
       <c r="B329" s="13"/>
@@ -21733,7 +21708,7 @@
     </row>
     <row r="330" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A372,Concepts!A372:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A371,Concepts!A371:A541,1), "")</f>
         <v/>
       </c>
       <c r="B330" s="13"/>
@@ -21744,7 +21719,7 @@
     </row>
     <row r="331" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A373,Concepts!A373:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A372,Concepts!A372:A541,1), "")</f>
         <v/>
       </c>
       <c r="B331" s="13"/>
@@ -21755,7 +21730,7 @@
     </row>
     <row r="332" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A374,Concepts!A374:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A373,Concepts!A373:A541,1), "")</f>
         <v/>
       </c>
       <c r="B332" s="13"/>
@@ -21766,7 +21741,7 @@
     </row>
     <row r="333" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A375,Concepts!A375:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A374,Concepts!A374:A541,1), "")</f>
         <v/>
       </c>
       <c r="B333" s="13"/>
@@ -21777,7 +21752,7 @@
     </row>
     <row r="334" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A376,Concepts!A376:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A375,Concepts!A375:A541,1), "")</f>
         <v/>
       </c>
       <c r="B334" s="13"/>
@@ -21788,7 +21763,7 @@
     </row>
     <row r="335" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A377,Concepts!A377:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A376,Concepts!A376:A541,1), "")</f>
         <v/>
       </c>
       <c r="B335" s="13"/>
@@ -21799,7 +21774,7 @@
     </row>
     <row r="336" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A378,Concepts!A378:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A377,Concepts!A377:A541,1), "")</f>
         <v/>
       </c>
       <c r="B336" s="13"/>
@@ -21810,7 +21785,7 @@
     </row>
     <row r="337" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A379,Concepts!A379:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A378,Concepts!A378:A541,1), "")</f>
         <v/>
       </c>
       <c r="B337" s="13"/>
@@ -21821,7 +21796,7 @@
     </row>
     <row r="338" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A380,Concepts!A380:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A379,Concepts!A379:A541,1), "")</f>
         <v/>
       </c>
       <c r="B338" s="13"/>
@@ -21832,7 +21807,7 @@
     </row>
     <row r="339" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A381,Concepts!A381:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A380,Concepts!A380:A541,1), "")</f>
         <v/>
       </c>
       <c r="B339" s="13"/>
@@ -21843,7 +21818,7 @@
     </row>
     <row r="340" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A382,Concepts!A382:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A381,Concepts!A381:A541,1), "")</f>
         <v/>
       </c>
       <c r="B340" s="13"/>
@@ -21854,7 +21829,7 @@
     </row>
     <row r="341" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A383,Concepts!A383:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A382,Concepts!A382:A541,1), "")</f>
         <v/>
       </c>
       <c r="B341" s="13"/>
@@ -21865,7 +21840,7 @@
     </row>
     <row r="342" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A384,Concepts!A384:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A383,Concepts!A383:A541,1), "")</f>
         <v/>
       </c>
       <c r="B342" s="13"/>
@@ -21876,7 +21851,7 @@
     </row>
     <row r="343" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A385,Concepts!A385:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A384,Concepts!A384:A541,1), "")</f>
         <v/>
       </c>
       <c r="B343" s="13"/>
@@ -21887,7 +21862,7 @@
     </row>
     <row r="344" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A386,Concepts!A386:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A385,Concepts!A385:A541,1), "")</f>
         <v/>
       </c>
       <c r="B344" s="13"/>
@@ -21898,7 +21873,7 @@
     </row>
     <row r="345" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A387,Concepts!A387:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A386,Concepts!A386:A541,1), "")</f>
         <v/>
       </c>
       <c r="B345" s="13"/>
@@ -21909,7 +21884,7 @@
     </row>
     <row r="346" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A388,Concepts!A388:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A387,Concepts!A387:A541,1), "")</f>
         <v/>
       </c>
       <c r="B346" s="13"/>
@@ -21920,7 +21895,7 @@
     </row>
     <row r="347" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A389,Concepts!A389:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A388,Concepts!A388:A541,1), "")</f>
         <v/>
       </c>
       <c r="B347" s="13"/>
@@ -21931,7 +21906,7 @@
     </row>
     <row r="348" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A390,Concepts!A390:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A389,Concepts!A389:A541,1), "")</f>
         <v/>
       </c>
       <c r="B348" s="13"/>
@@ -21942,7 +21917,7 @@
     </row>
     <row r="349" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A391,Concepts!A391:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A390,Concepts!A390:A541,1), "")</f>
         <v/>
       </c>
       <c r="B349" s="13"/>
@@ -21953,7 +21928,7 @@
     </row>
     <row r="350" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A392,Concepts!A392:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A391,Concepts!A391:A541,1), "")</f>
         <v/>
       </c>
       <c r="B350" s="13"/>
@@ -21964,7 +21939,7 @@
     </row>
     <row r="351" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A393,Concepts!A393:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A392,Concepts!A392:A541,1), "")</f>
         <v/>
       </c>
       <c r="B351" s="13"/>
@@ -21975,7 +21950,7 @@
     </row>
     <row r="352" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A394,Concepts!A394:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A393,Concepts!A393:A541,1), "")</f>
         <v/>
       </c>
       <c r="B352" s="13"/>
@@ -21986,7 +21961,7 @@
     </row>
     <row r="353" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A395,Concepts!A395:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A394,Concepts!A394:A541,1), "")</f>
         <v/>
       </c>
       <c r="B353" s="13"/>
@@ -21997,7 +21972,7 @@
     </row>
     <row r="354" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A396,Concepts!A396:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A395,Concepts!A395:A541,1), "")</f>
         <v/>
       </c>
       <c r="B354" s="13"/>
@@ -22008,7 +21983,7 @@
     </row>
     <row r="355" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A397,Concepts!A397:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A396,Concepts!A396:A541,1), "")</f>
         <v/>
       </c>
       <c r="B355" s="13"/>
@@ -22019,7 +21994,7 @@
     </row>
     <row r="356" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A398,Concepts!A398:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A397,Concepts!A397:A541,1), "")</f>
         <v/>
       </c>
       <c r="B356" s="13"/>
@@ -22030,7 +22005,7 @@
     </row>
     <row r="357" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A399,Concepts!A399:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A398,Concepts!A398:A541,1), "")</f>
         <v/>
       </c>
       <c r="B357" s="13"/>
@@ -22041,7 +22016,7 @@
     </row>
     <row r="358" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A400,Concepts!A400:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A399,Concepts!A399:A541,1), "")</f>
         <v/>
       </c>
       <c r="B358" s="13"/>
@@ -22052,7 +22027,7 @@
     </row>
     <row r="359" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A401,Concepts!A401:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A400,Concepts!A400:A541,1), "")</f>
         <v/>
       </c>
       <c r="B359" s="13"/>
@@ -22063,7 +22038,7 @@
     </row>
     <row r="360" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A402,Concepts!A402:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A401,Concepts!A401:A541,1), "")</f>
         <v/>
       </c>
       <c r="B360" s="13"/>
@@ -22074,7 +22049,7 @@
     </row>
     <row r="361" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A403,Concepts!A403:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A402,Concepts!A402:A541,1), "")</f>
         <v/>
       </c>
       <c r="B361" s="13"/>
@@ -22085,7 +22060,7 @@
     </row>
     <row r="362" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A404,Concepts!A404:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A403,Concepts!A403:A541,1), "")</f>
         <v/>
       </c>
       <c r="B362" s="13"/>
@@ -22096,7 +22071,7 @@
     </row>
     <row r="363" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A405,Concepts!A405:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A404,Concepts!A404:A541,1), "")</f>
         <v/>
       </c>
       <c r="B363" s="13"/>
@@ -22107,7 +22082,7 @@
     </row>
     <row r="364" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A406,Concepts!A406:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A405,Concepts!A405:A541,1), "")</f>
         <v/>
       </c>
       <c r="B364" s="13"/>
@@ -22118,7 +22093,7 @@
     </row>
     <row r="365" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A407,Concepts!A407:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A406,Concepts!A406:A541,1), "")</f>
         <v/>
       </c>
       <c r="B365" s="13"/>
@@ -22129,7 +22104,7 @@
     </row>
     <row r="366" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A408,Concepts!A408:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A407,Concepts!A407:A541,1), "")</f>
         <v/>
       </c>
       <c r="B366" s="13"/>
@@ -22140,7 +22115,7 @@
     </row>
     <row r="367" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A409,Concepts!A409:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A408,Concepts!A408:A541,1), "")</f>
         <v/>
       </c>
       <c r="B367" s="13"/>
@@ -22151,7 +22126,7 @@
     </row>
     <row r="368" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A410,Concepts!A410:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A409,Concepts!A409:A541,1), "")</f>
         <v/>
       </c>
       <c r="B368" s="13"/>
@@ -22162,7 +22137,7 @@
     </row>
     <row r="369" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A411,Concepts!A411:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A410,Concepts!A410:A541,1), "")</f>
         <v/>
       </c>
       <c r="B369" s="13"/>
@@ -22173,7 +22148,7 @@
     </row>
     <row r="370" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A412,Concepts!A412:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A411,Concepts!A411:A541,1), "")</f>
         <v/>
       </c>
       <c r="B370" s="13"/>
@@ -22184,7 +22159,7 @@
     </row>
     <row r="371" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A413,Concepts!A413:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A412,Concepts!A412:A541,1), "")</f>
         <v/>
       </c>
       <c r="B371" s="13"/>
@@ -22195,7 +22170,7 @@
     </row>
     <row r="372" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A414,Concepts!A414:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A413,Concepts!A413:A541,1), "")</f>
         <v/>
       </c>
       <c r="B372" s="13"/>
@@ -22206,7 +22181,7 @@
     </row>
     <row r="373" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A415,Concepts!A415:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A414,Concepts!A414:A541,1), "")</f>
         <v/>
       </c>
       <c r="B373" s="13"/>
@@ -22217,7 +22192,7 @@
     </row>
     <row r="374" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A416,Concepts!A416:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A415,Concepts!A415:A541,1), "")</f>
         <v/>
       </c>
       <c r="B374" s="13"/>
@@ -22228,7 +22203,7 @@
     </row>
     <row r="375" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A417,Concepts!A417:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A416,Concepts!A416:A541,1), "")</f>
         <v/>
       </c>
       <c r="B375" s="13"/>
@@ -22239,7 +22214,7 @@
     </row>
     <row r="376" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A418,Concepts!A418:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A417,Concepts!A417:A541,1), "")</f>
         <v/>
       </c>
       <c r="B376" s="13"/>
@@ -22250,7 +22225,7 @@
     </row>
     <row r="377" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A419,Concepts!A419:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A418,Concepts!A418:A541,1), "")</f>
         <v/>
       </c>
       <c r="B377" s="13"/>
@@ -22261,7 +22236,7 @@
     </row>
     <row r="378" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A420,Concepts!A420:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A419,Concepts!A419:A541,1), "")</f>
         <v/>
       </c>
       <c r="B378" s="13"/>
@@ -22272,7 +22247,7 @@
     </row>
     <row r="379" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A421,Concepts!A421:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A420,Concepts!A420:A541,1), "")</f>
         <v/>
       </c>
       <c r="B379" s="13"/>
@@ -22283,7 +22258,7 @@
     </row>
     <row r="380" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A422,Concepts!A422:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A421,Concepts!A421:A541,1), "")</f>
         <v/>
       </c>
       <c r="B380" s="13"/>
@@ -22294,7 +22269,7 @@
     </row>
     <row r="381" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A423,Concepts!A423:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A422,Concepts!A422:A541,1), "")</f>
         <v/>
       </c>
       <c r="B381" s="13"/>
@@ -22305,7 +22280,7 @@
     </row>
     <row r="382" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A424,Concepts!A424:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A423,Concepts!A423:A541,1), "")</f>
         <v/>
       </c>
       <c r="B382" s="13"/>
@@ -22316,7 +22291,7 @@
     </row>
     <row r="383" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A425,Concepts!A425:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A424,Concepts!A424:A541,1), "")</f>
         <v/>
       </c>
       <c r="B383" s="13"/>
@@ -22327,7 +22302,7 @@
     </row>
     <row r="384" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A426,Concepts!A426:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A425,Concepts!A425:A541,1), "")</f>
         <v/>
       </c>
       <c r="B384" s="13"/>
@@ -22338,7 +22313,7 @@
     </row>
     <row r="385" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A427,Concepts!A427:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A426,Concepts!A426:A541,1), "")</f>
         <v/>
       </c>
       <c r="B385" s="13"/>
@@ -22349,7 +22324,7 @@
     </row>
     <row r="386" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A428,Concepts!A428:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A427,Concepts!A427:A541,1), "")</f>
         <v/>
       </c>
       <c r="B386" s="13"/>
@@ -22360,7 +22335,7 @@
     </row>
     <row r="387" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A429,Concepts!A429:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A428,Concepts!A428:A541,1), "")</f>
         <v/>
       </c>
       <c r="B387" s="13"/>
@@ -22371,7 +22346,7 @@
     </row>
     <row r="388" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A430,Concepts!A430:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A429,Concepts!A429:A541,1), "")</f>
         <v/>
       </c>
       <c r="B388" s="13"/>
@@ -22382,7 +22357,7 @@
     </row>
     <row r="389" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A431,Concepts!A431:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A430,Concepts!A430:A541,1), "")</f>
         <v/>
       </c>
       <c r="B389" s="13"/>
@@ -22393,7 +22368,7 @@
     </row>
     <row r="390" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A432,Concepts!A432:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A431,Concepts!A431:A541,1), "")</f>
         <v/>
       </c>
       <c r="B390" s="13"/>
@@ -22404,7 +22379,7 @@
     </row>
     <row r="391" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A433,Concepts!A433:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A432,Concepts!A432:A541,1), "")</f>
         <v/>
       </c>
       <c r="B391" s="13"/>
@@ -22415,7 +22390,7 @@
     </row>
     <row r="392" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A434,Concepts!A434:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A433,Concepts!A433:A541,1), "")</f>
         <v/>
       </c>
       <c r="B392" s="13"/>
@@ -22426,7 +22401,7 @@
     </row>
     <row r="393" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A435,Concepts!A435:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A434,Concepts!A434:A541,1), "")</f>
         <v/>
       </c>
       <c r="B393" s="13"/>
@@ -22437,7 +22412,7 @@
     </row>
     <row r="394" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A436,Concepts!A436:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A435,Concepts!A435:A541,1), "")</f>
         <v/>
       </c>
       <c r="B394" s="13"/>
@@ -22448,7 +22423,7 @@
     </row>
     <row r="395" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A437,Concepts!A437:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A436,Concepts!A436:A541,1), "")</f>
         <v/>
       </c>
       <c r="B395" s="13"/>
@@ -22459,7 +22434,7 @@
     </row>
     <row r="396" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A438,Concepts!A438:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A437,Concepts!A437:A541,1), "")</f>
         <v/>
       </c>
       <c r="B396" s="13"/>
@@ -22470,7 +22445,7 @@
     </row>
     <row r="397" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A439,Concepts!A439:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A438,Concepts!A438:A541,1), "")</f>
         <v/>
       </c>
       <c r="B397" s="13"/>
@@ -22481,7 +22456,7 @@
     </row>
     <row r="398" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A440,Concepts!A440:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A439,Concepts!A439:A541,1), "")</f>
         <v/>
       </c>
       <c r="B398" s="13"/>
@@ -22492,7 +22467,7 @@
     </row>
     <row r="399" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A441,Concepts!A441:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A440,Concepts!A440:A541,1), "")</f>
         <v/>
       </c>
       <c r="B399" s="13"/>
@@ -22503,7 +22478,7 @@
     </row>
     <row r="400" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A442,Concepts!A442:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A441,Concepts!A441:A541,1), "")</f>
         <v/>
       </c>
       <c r="B400" s="13"/>
@@ -22514,7 +22489,7 @@
     </row>
     <row r="401" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A443,Concepts!A443:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A442,Concepts!A442:A541,1), "")</f>
         <v/>
       </c>
       <c r="B401" s="13"/>
@@ -22525,7 +22500,7 @@
     </row>
     <row r="402" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A444,Concepts!A444:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A443,Concepts!A443:A541,1), "")</f>
         <v/>
       </c>
       <c r="B402" s="13"/>
@@ -22536,7 +22511,7 @@
     </row>
     <row r="403" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A445,Concepts!A445:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A444,Concepts!A444:A541,1), "")</f>
         <v/>
       </c>
       <c r="B403" s="13"/>
@@ -22547,7 +22522,7 @@
     </row>
     <row r="404" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A446,Concepts!A446:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A445,Concepts!A445:A541,1), "")</f>
         <v/>
       </c>
       <c r="B404" s="13"/>
@@ -22558,7 +22533,7 @@
     </row>
     <row r="405" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A447,Concepts!A447:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A446,Concepts!A446:A541,1), "")</f>
         <v/>
       </c>
       <c r="B405" s="13"/>
@@ -22569,7 +22544,7 @@
     </row>
     <row r="406" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A448,Concepts!A448:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A447,Concepts!A447:A541,1), "")</f>
         <v/>
       </c>
       <c r="B406" s="13"/>
@@ -22580,7 +22555,7 @@
     </row>
     <row r="407" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A449,Concepts!A449:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A448,Concepts!A448:A541,1), "")</f>
         <v/>
       </c>
       <c r="B407" s="13"/>
@@ -22591,7 +22566,7 @@
     </row>
     <row r="408" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A450,Concepts!A450:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A449,Concepts!A449:A541,1), "")</f>
         <v/>
       </c>
       <c r="B408" s="13"/>
@@ -22602,7 +22577,7 @@
     </row>
     <row r="409" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A451,Concepts!A451:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A450,Concepts!A450:A541,1), "")</f>
         <v/>
       </c>
       <c r="B409" s="13"/>
@@ -22613,7 +22588,7 @@
     </row>
     <row r="410" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A452,Concepts!A452:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A451,Concepts!A451:A541,1), "")</f>
         <v/>
       </c>
       <c r="B410" s="13"/>
@@ -22624,7 +22599,7 @@
     </row>
     <row r="411" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A453,Concepts!A453:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A452,Concepts!A452:A541,1), "")</f>
         <v/>
       </c>
       <c r="B411" s="13"/>
@@ -22635,7 +22610,7 @@
     </row>
     <row r="412" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A454,Concepts!A454:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A453,Concepts!A453:A541,1), "")</f>
         <v/>
       </c>
       <c r="B412" s="13"/>
@@ -22646,7 +22621,7 @@
     </row>
     <row r="413" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A455,Concepts!A455:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A454,Concepts!A454:A541,1), "")</f>
         <v/>
       </c>
       <c r="B413" s="13"/>
@@ -22657,7 +22632,7 @@
     </row>
     <row r="414" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A456,Concepts!A456:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A455,Concepts!A455:A541,1), "")</f>
         <v/>
       </c>
       <c r="B414" s="13"/>
@@ -22668,7 +22643,7 @@
     </row>
     <row r="415" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A457,Concepts!A457:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A456,Concepts!A456:A541,1), "")</f>
         <v/>
       </c>
       <c r="B415" s="13"/>
@@ -22679,7 +22654,7 @@
     </row>
     <row r="416" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A458,Concepts!A458:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A457,Concepts!A457:A541,1), "")</f>
         <v/>
       </c>
       <c r="B416" s="13"/>
@@ -22690,7 +22665,7 @@
     </row>
     <row r="417" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A459,Concepts!A459:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A458,Concepts!A458:A541,1), "")</f>
         <v/>
       </c>
       <c r="B417" s="13"/>
@@ -22701,7 +22676,7 @@
     </row>
     <row r="418" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A460,Concepts!A460:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A459,Concepts!A459:A541,1), "")</f>
         <v/>
       </c>
       <c r="B418" s="13"/>
@@ -22712,7 +22687,7 @@
     </row>
     <row r="419" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A461,Concepts!A461:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A460,Concepts!A460:A541,1), "")</f>
         <v/>
       </c>
       <c r="B419" s="13"/>
@@ -22723,7 +22698,7 @@
     </row>
     <row r="420" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A462,Concepts!A462:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A461,Concepts!A461:A541,1), "")</f>
         <v/>
       </c>
       <c r="B420" s="13"/>
@@ -22734,7 +22709,7 @@
     </row>
     <row r="421" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A463,Concepts!A463:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A462,Concepts!A462:A541,1), "")</f>
         <v/>
       </c>
       <c r="B421" s="13"/>
@@ -22745,7 +22720,7 @@
     </row>
     <row r="422" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A464,Concepts!A464:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A463,Concepts!A463:A541,1), "")</f>
         <v/>
       </c>
       <c r="B422" s="13"/>
@@ -22756,7 +22731,7 @@
     </row>
     <row r="423" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A465,Concepts!A465:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A464,Concepts!A464:A541,1), "")</f>
         <v/>
       </c>
       <c r="B423" s="13"/>
@@ -22767,7 +22742,7 @@
     </row>
     <row r="424" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A466,Concepts!A466:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A465,Concepts!A465:A541,1), "")</f>
         <v/>
       </c>
       <c r="B424" s="13"/>
@@ -22778,7 +22753,7 @@
     </row>
     <row r="425" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A467,Concepts!A467:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A466,Concepts!A466:A541,1), "")</f>
         <v/>
       </c>
       <c r="B425" s="13"/>
@@ -22789,7 +22764,7 @@
     </row>
     <row r="426" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A468,Concepts!A468:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A467,Concepts!A467:A541,1), "")</f>
         <v/>
       </c>
       <c r="B426" s="13"/>
@@ -22800,7 +22775,7 @@
     </row>
     <row r="427" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A469,Concepts!A469:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A468,Concepts!A468:A541,1), "")</f>
         <v/>
       </c>
       <c r="B427" s="13"/>
@@ -22811,7 +22786,7 @@
     </row>
     <row r="428" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A470,Concepts!A470:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A469,Concepts!A469:A541,1), "")</f>
         <v/>
       </c>
       <c r="B428" s="13"/>
@@ -22822,7 +22797,7 @@
     </row>
     <row r="429" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A471,Concepts!A471:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A470,Concepts!A470:A541,1), "")</f>
         <v/>
       </c>
       <c r="B429" s="13"/>
@@ -22833,7 +22808,7 @@
     </row>
     <row r="430" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A472,Concepts!A472:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A471,Concepts!A471:A541,1), "")</f>
         <v/>
       </c>
       <c r="B430" s="13"/>
@@ -22844,7 +22819,7 @@
     </row>
     <row r="431" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A473,Concepts!A473:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A472,Concepts!A472:A541,1), "")</f>
         <v/>
       </c>
       <c r="B431" s="13"/>
@@ -22855,7 +22830,7 @@
     </row>
     <row r="432" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A474,Concepts!A474:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A473,Concepts!A473:A541,1), "")</f>
         <v/>
       </c>
       <c r="B432" s="13"/>
@@ -22866,7 +22841,7 @@
     </row>
     <row r="433" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A475,Concepts!A475:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A474,Concepts!A474:A541,1), "")</f>
         <v/>
       </c>
       <c r="B433" s="13"/>
@@ -22877,7 +22852,7 @@
     </row>
     <row r="434" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A476,Concepts!A476:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A475,Concepts!A475:A541,1), "")</f>
         <v/>
       </c>
       <c r="B434" s="13"/>
@@ -22888,7 +22863,7 @@
     </row>
     <row r="435" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A477,Concepts!A477:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A476,Concepts!A476:A541,1), "")</f>
         <v/>
       </c>
       <c r="B435" s="13"/>
@@ -22899,7 +22874,7 @@
     </row>
     <row r="436" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A478,Concepts!A478:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A477,Concepts!A477:A541,1), "")</f>
         <v/>
       </c>
       <c r="B436" s="13"/>
@@ -22910,7 +22885,7 @@
     </row>
     <row r="437" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A479,Concepts!A479:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A478,Concepts!A478:A541,1), "")</f>
         <v/>
       </c>
       <c r="B437" s="13"/>
@@ -22921,7 +22896,7 @@
     </row>
     <row r="438" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A480,Concepts!A480:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A479,Concepts!A479:A541,1), "")</f>
         <v/>
       </c>
       <c r="B438" s="13"/>
@@ -22932,7 +22907,7 @@
     </row>
     <row r="439" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A481,Concepts!A481:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A480,Concepts!A480:A541,1), "")</f>
         <v/>
       </c>
       <c r="B439" s="13"/>
@@ -22943,7 +22918,7 @@
     </row>
     <row r="440" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A482,Concepts!A482:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A481,Concepts!A481:A541,1), "")</f>
         <v/>
       </c>
       <c r="B440" s="13"/>
@@ -22954,7 +22929,7 @@
     </row>
     <row r="441" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A483,Concepts!A483:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A482,Concepts!A482:A541,1), "")</f>
         <v/>
       </c>
       <c r="B441" s="13"/>
@@ -22965,7 +22940,7 @@
     </row>
     <row r="442" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A484,Concepts!A484:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A483,Concepts!A483:A541,1), "")</f>
         <v/>
       </c>
       <c r="B442" s="13"/>
@@ -22976,7 +22951,7 @@
     </row>
     <row r="443" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A485,Concepts!A485:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A484,Concepts!A484:A541,1), "")</f>
         <v/>
       </c>
       <c r="B443" s="13"/>
@@ -22987,7 +22962,7 @@
     </row>
     <row r="444" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A486,Concepts!A486:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A485,Concepts!A485:A541,1), "")</f>
         <v/>
       </c>
       <c r="B444" s="13"/>
@@ -22998,7 +22973,7 @@
     </row>
     <row r="445" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A487,Concepts!A487:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A486,Concepts!A486:A541,1), "")</f>
         <v/>
       </c>
       <c r="B445" s="13"/>
@@ -23009,7 +22984,7 @@
     </row>
     <row r="446" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A488,Concepts!A488:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A487,Concepts!A487:A541,1), "")</f>
         <v/>
       </c>
       <c r="B446" s="13"/>
@@ -23020,7 +22995,7 @@
     </row>
     <row r="447" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A489,Concepts!A489:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A488,Concepts!A488:A541,1), "")</f>
         <v/>
       </c>
       <c r="B447" s="13"/>
@@ -23031,7 +23006,7 @@
     </row>
     <row r="448" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A490,Concepts!A490:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A489,Concepts!A489:A541,1), "")</f>
         <v/>
       </c>
       <c r="B448" s="13"/>
@@ -23042,7 +23017,7 @@
     </row>
     <row r="449" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A491,Concepts!A491:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A490,Concepts!A490:A541,1), "")</f>
         <v/>
       </c>
       <c r="B449" s="13"/>
@@ -23053,7 +23028,7 @@
     </row>
     <row r="450" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A492,Concepts!A492:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A491,Concepts!A491:A541,1), "")</f>
         <v/>
       </c>
       <c r="B450" s="13"/>
@@ -23064,7 +23039,7 @@
     </row>
     <row r="451" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A493,Concepts!A493:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A492,Concepts!A492:A541,1), "")</f>
         <v/>
       </c>
       <c r="B451" s="13"/>
@@ -23075,7 +23050,7 @@
     </row>
     <row r="452" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A494,Concepts!A494:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A493,Concepts!A493:A541,1), "")</f>
         <v/>
       </c>
       <c r="B452" s="13"/>
@@ -23086,7 +23061,7 @@
     </row>
     <row r="453" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A495,Concepts!A495:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A494,Concepts!A494:A541,1), "")</f>
         <v/>
       </c>
       <c r="B453" s="13"/>
@@ -23097,7 +23072,7 @@
     </row>
     <row r="454" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A496,Concepts!A496:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A495,Concepts!A495:A541,1), "")</f>
         <v/>
       </c>
       <c r="B454" s="13"/>
@@ -23108,7 +23083,7 @@
     </row>
     <row r="455" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A497,Concepts!A497:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A496,Concepts!A496:A541,1), "")</f>
         <v/>
       </c>
       <c r="B455" s="13"/>
@@ -23119,7 +23094,7 @@
     </row>
     <row r="456" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A498,Concepts!A498:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A497,Concepts!A497:A541,1), "")</f>
         <v/>
       </c>
       <c r="B456" s="13"/>
@@ -23130,7 +23105,7 @@
     </row>
     <row r="457" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A499,Concepts!A499:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A498,Concepts!A498:A541,1), "")</f>
         <v/>
       </c>
       <c r="B457" s="13"/>
@@ -23141,7 +23116,7 @@
     </row>
     <row r="458" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A500,Concepts!A500:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A499,Concepts!A499:A541,1), "")</f>
         <v/>
       </c>
       <c r="B458" s="13"/>
@@ -23152,7 +23127,7 @@
     </row>
     <row r="459" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A501,Concepts!A501:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A500,Concepts!A500:A541,1), "")</f>
         <v/>
       </c>
       <c r="B459" s="13"/>
@@ -23163,7 +23138,7 @@
     </row>
     <row r="460" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A502,Concepts!A502:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A501,Concepts!A501:A541,1), "")</f>
         <v/>
       </c>
       <c r="B460" s="13"/>
@@ -23174,7 +23149,7 @@
     </row>
     <row r="461" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A503,Concepts!A503:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A502,Concepts!A502:A541,1), "")</f>
         <v/>
       </c>
       <c r="B461" s="13"/>
@@ -23185,7 +23160,7 @@
     </row>
     <row r="462" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A504,Concepts!A504:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A503,Concepts!A503:A541,1), "")</f>
         <v/>
       </c>
       <c r="B462" s="13"/>
@@ -23196,7 +23171,7 @@
     </row>
     <row r="463" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A505,Concepts!A505:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A504,Concepts!A504:A541,1), "")</f>
         <v/>
       </c>
       <c r="B463" s="13"/>
@@ -23207,7 +23182,7 @@
     </row>
     <row r="464" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A506,Concepts!A506:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A505,Concepts!A505:A541,1), "")</f>
         <v/>
       </c>
       <c r="B464" s="13"/>
@@ -23218,7 +23193,7 @@
     </row>
     <row r="465" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A507,Concepts!A507:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A506,Concepts!A506:A541,1), "")</f>
         <v/>
       </c>
       <c r="B465" s="13"/>
@@ -23229,7 +23204,7 @@
     </row>
     <row r="466" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A508,Concepts!A508:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A507,Concepts!A507:A541,1), "")</f>
         <v/>
       </c>
       <c r="B466" s="13"/>
@@ -23240,7 +23215,7 @@
     </row>
     <row r="467" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A509,Concepts!A509:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A508,Concepts!A508:A541,1), "")</f>
         <v/>
       </c>
       <c r="B467" s="13"/>
@@ -23251,7 +23226,7 @@
     </row>
     <row r="468" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A510,Concepts!A510:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A509,Concepts!A509:A541,1), "")</f>
         <v/>
       </c>
       <c r="B468" s="13"/>
@@ -23262,7 +23237,7 @@
     </row>
     <row r="469" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A511,Concepts!A511:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A510,Concepts!A510:A541,1), "")</f>
         <v/>
       </c>
       <c r="B469" s="13"/>
@@ -23273,7 +23248,7 @@
     </row>
     <row r="470" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A512,Concepts!A512:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A511,Concepts!A511:A541,1), "")</f>
         <v/>
       </c>
       <c r="B470" s="13"/>
@@ -23284,7 +23259,7 @@
     </row>
     <row r="471" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A513,Concepts!A513:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A512,Concepts!A512:A541,1), "")</f>
         <v/>
       </c>
       <c r="B471" s="13"/>
@@ -23295,7 +23270,7 @@
     </row>
     <row r="472" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A514,Concepts!A514:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A513,Concepts!A513:A541,1), "")</f>
         <v/>
       </c>
       <c r="B472" s="13"/>
@@ -23306,7 +23281,7 @@
     </row>
     <row r="473" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A515,Concepts!A515:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A514,Concepts!A514:A541,1), "")</f>
         <v/>
       </c>
       <c r="B473" s="13"/>
@@ -23317,7 +23292,7 @@
     </row>
     <row r="474" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A516,Concepts!A516:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A515,Concepts!A515:A541,1), "")</f>
         <v/>
       </c>
       <c r="B474" s="13"/>
@@ -23328,7 +23303,7 @@
     </row>
     <row r="475" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A517,Concepts!A517:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A516,Concepts!A516:A541,1), "")</f>
         <v/>
       </c>
       <c r="B475" s="13"/>
@@ -23339,7 +23314,7 @@
     </row>
     <row r="476" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A518,Concepts!A518:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A517,Concepts!A517:A541,1), "")</f>
         <v/>
       </c>
       <c r="B476" s="13"/>
@@ -23350,7 +23325,7 @@
     </row>
     <row r="477" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A519,Concepts!A519:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A518,Concepts!A518:A541,1), "")</f>
         <v/>
       </c>
       <c r="B477" s="13"/>
@@ -23361,7 +23336,7 @@
     </row>
     <row r="478" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A520,Concepts!A520:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A519,Concepts!A519:A541,1), "")</f>
         <v/>
       </c>
       <c r="B478" s="13"/>
@@ -23372,7 +23347,7 @@
     </row>
     <row r="479" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A521,Concepts!A521:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A520,Concepts!A520:A541,1), "")</f>
         <v/>
       </c>
       <c r="B479" s="13"/>
@@ -23383,7 +23358,7 @@
     </row>
     <row r="480" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A522,Concepts!A522:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A521,Concepts!A521:A541,1), "")</f>
         <v/>
       </c>
       <c r="B480" s="13"/>
@@ -23394,7 +23369,7 @@
     </row>
     <row r="481" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A523,Concepts!A523:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A522,Concepts!A522:A541,1), "")</f>
         <v/>
       </c>
       <c r="B481" s="13"/>
@@ -23405,7 +23380,7 @@
     </row>
     <row r="482" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A524,Concepts!A524:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A523,Concepts!A523:A541,1), "")</f>
         <v/>
       </c>
       <c r="B482" s="13"/>
@@ -23416,7 +23391,7 @@
     </row>
     <row r="483" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A525,Concepts!A525:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A524,Concepts!A524:A541,1), "")</f>
         <v/>
       </c>
       <c r="B483" s="13"/>
@@ -23427,7 +23402,7 @@
     </row>
     <row r="484" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A526,Concepts!A526:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A525,Concepts!A525:A541,1), "")</f>
         <v/>
       </c>
       <c r="B484" s="13"/>
@@ -23438,7 +23413,7 @@
     </row>
     <row r="485" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A527,Concepts!A527:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A526,Concepts!A526:A541,1), "")</f>
         <v/>
       </c>
       <c r="B485" s="13"/>
@@ -23449,7 +23424,7 @@
     </row>
     <row r="486" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A528,Concepts!A528:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A527,Concepts!A527:A541,1), "")</f>
         <v/>
       </c>
       <c r="B486" s="13"/>
@@ -23460,7 +23435,7 @@
     </row>
     <row r="487" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A529,Concepts!A529:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A528,Concepts!A528:A541,1), "")</f>
         <v/>
       </c>
       <c r="B487" s="13"/>
@@ -23471,7 +23446,7 @@
     </row>
     <row r="488" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A530,Concepts!A530:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A529,Concepts!A529:A541,1), "")</f>
         <v/>
       </c>
       <c r="B488" s="13"/>
@@ -23482,7 +23457,7 @@
     </row>
     <row r="489" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A531,Concepts!A531:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A530,Concepts!A530:A541,1), "")</f>
         <v/>
       </c>
       <c r="B489" s="13"/>
@@ -23493,7 +23468,7 @@
     </row>
     <row r="490" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A532,Concepts!A532:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A531,Concepts!A531:A541,1), "")</f>
         <v/>
       </c>
       <c r="B490" s="13"/>
@@ -23504,7 +23479,7 @@
     </row>
     <row r="491" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A533,Concepts!A533:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A532,Concepts!A532:A541,1), "")</f>
         <v/>
       </c>
       <c r="B491" s="13"/>
@@ -23515,7 +23490,7 @@
     </row>
     <row r="492" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A534,Concepts!A534:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A533,Concepts!A533:A541,1), "")</f>
         <v/>
       </c>
       <c r="B492" s="13"/>
@@ -23526,7 +23501,7 @@
     </row>
     <row r="493" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A535,Concepts!A535:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A534,Concepts!A534:A541,1), "")</f>
         <v/>
       </c>
       <c r="B493" s="13"/>
@@ -23537,7 +23512,7 @@
     </row>
     <row r="494" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A536,Concepts!A536:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A535,Concepts!A535:A541,1), "")</f>
         <v/>
       </c>
       <c r="B494" s="13"/>
@@ -23548,7 +23523,7 @@
     </row>
     <row r="495" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A537,Concepts!A537:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A536,Concepts!A536:A541,1), "")</f>
         <v/>
       </c>
       <c r="B495" s="13"/>
@@ -23559,7 +23534,7 @@
     </row>
     <row r="496" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A538,Concepts!A538:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A537,Concepts!A537:A541,1), "")</f>
         <v/>
       </c>
       <c r="B496" s="13"/>
@@ -23570,7 +23545,7 @@
     </row>
     <row r="497" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A539,Concepts!A539:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A538,Concepts!A538:A541,1), "")</f>
         <v/>
       </c>
       <c r="B497" s="13"/>
@@ -23581,7 +23556,7 @@
     </row>
     <row r="498" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A540,Concepts!A540:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A539,Concepts!A539:A541,1), "")</f>
         <v/>
       </c>
       <c r="B498" s="13"/>
@@ -23592,7 +23567,7 @@
     </row>
     <row r="499" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A541,Concepts!A541:A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A540,Concepts!A540:A541,1), "")</f>
         <v/>
       </c>
       <c r="B499" s="13"/>
@@ -23603,7 +23578,7 @@
     </row>
     <row r="500" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="19" t="str">
-        <f>IFERROR(HLOOKUP(Concepts!A542,Concepts!A542,1), "")</f>
+        <f>IFERROR(HLOOKUP(Concepts!A541,Concepts!A541,1), "")</f>
         <v/>
       </c>
       <c r="B500" s="13"/>
@@ -23632,8 +23607,8 @@
   </sheetPr>
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23648,7 +23623,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -23660,27 +23635,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="30" t="s">
         <v>489</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>490</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>74</v>
@@ -23696,7 +23671,7 @@
     </row>
     <row r="4" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>28</v>
@@ -23706,15 +23681,15 @@
       </c>
       <c r="D4" s="27"/>
       <c r="F4" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>495</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>496</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>146</v>
@@ -23722,12 +23697,12 @@
       <c r="D5" s="27"/>
       <c r="E5" s="28"/>
       <c r="F5" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>257</v>
@@ -23738,12 +23713,12 @@
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
       <c r="F6" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>306</v>
@@ -23754,12 +23729,12 @@
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
       <c r="F7" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>365</v>
@@ -23770,7 +23745,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="28"/>
       <c r="F8" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -25145,18 +25120,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/Photocatalsis_LIKAT_template043.xlsx
+++ b/inbox-excel-vocabs/Photocatalsis_LIKAT_template043.xlsx
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="501">
   <si>
     <t xml:space="preserve">Created by </t>
   </si>
@@ -1639,37 +1639,19 @@
     <t>Members by Pref. Label</t>
   </si>
   <si>
-    <t>ex:photo/general-terms-coll</t>
-  </si>
-  <si>
-    <t>ex:photo/photocatalytic-co2-reduction-coll</t>
-  </si>
-  <si>
     <t>Reactor design, Synthesis of photocatalyst, Characterization of photocatalysts,  Evaluation of performance</t>
   </si>
   <si>
-    <t>ex:photo/reactor-design-coll</t>
-  </si>
-  <si>
     <t>Reactor design</t>
   </si>
   <si>
     <t>Operation temperature, Operation pressure, Operation mode, Reaction chamber, Light sources, Product identification method, Gas flows</t>
   </si>
   <si>
-    <t>ex:photo/synthesis-of-photocatalysts-coll</t>
-  </si>
-  <si>
     <t>Literature research, Chemical substances used for synthesis, Synthesis steps</t>
   </si>
   <si>
-    <t>ex:photo/characterization-of-photocatalysts-coll</t>
-  </si>
-  <si>
     <t>Gas chromatography, X-ray fluorescence, Electron energy loss spectroscopy, Raman Spectroscopy, Atomic force microscopy, Differential scanning calorimetry, Thermogravimetric analysis, Nuclear magnetic resonance spectroscopy, Photoluminescence, Scanning electron microscopy, X-ray photoelectron spectroscopy, X-ray diffraction, Transmission electron microscopy, Ultraviolet-visible spectroscopy, Fourier transform infrared spectroscopy, Liquid chromatography, Mass spectroscopy</t>
-  </si>
-  <si>
-    <t>ex:photo/evaluation-of-performance-coll</t>
   </si>
   <si>
     <t>Concentration of reactants, Purity of reactants, Operation mode, Light source, Duration of experiment, Irradiation timel Sampling intervals, Form of a catalyst</t>
@@ -2060,102 +2042,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD9EAD3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB47CFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2361,6 +2247,102 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9EAD3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB47CFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB47CFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB47CFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB47CFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB47CFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB47CFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB47CFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2454,19 +2436,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:J156" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:J156" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:J156"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Concept IRI*" dataDxfId="19" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" name="Preferred Label*" dataDxfId="18"/>
-    <tableColumn id="3" name="Preferred Label Lang code" dataDxfId="17"/>
-    <tableColumn id="4" name="Definition*" dataDxfId="16"/>
-    <tableColumn id="5" name="Definition Language Code" dataDxfId="15"/>
-    <tableColumn id="6" name="Alternate Label" dataDxfId="14"/>
-    <tableColumn id="7" name="Children URI" dataDxfId="13"/>
-    <tableColumn id="8" name="Provenance" dataDxfId="12"/>
-    <tableColumn id="9" name="Source Vocab URI" dataDxfId="11"/>
-    <tableColumn id="10" name="Children by Pref. Label" dataDxfId="10"/>
+    <tableColumn id="1" name="Concept IRI*" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" name="Preferred Label*" dataDxfId="9"/>
+    <tableColumn id="3" name="Preferred Label Lang code" dataDxfId="8"/>
+    <tableColumn id="4" name="Definition*" dataDxfId="7"/>
+    <tableColumn id="5" name="Definition Language Code" dataDxfId="6"/>
+    <tableColumn id="6" name="Alternate Label" dataDxfId="5"/>
+    <tableColumn id="7" name="Children URI" dataDxfId="4"/>
+    <tableColumn id="8" name="Provenance" dataDxfId="3"/>
+    <tableColumn id="9" name="Source Vocab URI" dataDxfId="2"/>
+    <tableColumn id="10" name="Children by Pref. Label" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4073,42 +4055,42 @@
     <mergeCell ref="H14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:J18 K1:K8 K17:K28 H3:J7 H10:J10 H8 K10:K15 H13:J13 H14 A18:G18 A15:J15 A19:J28 A10:G14 A2:G8 A1:J1 A9:K9">
-    <cfRule type="containsBlanks" dxfId="9" priority="13">
+    <cfRule type="containsBlanks" dxfId="21" priority="13">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:J4 A2:G2">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="14">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="containsBlanks" dxfId="7" priority="10">
+    <cfRule type="containsBlanks" dxfId="19" priority="10">
       <formula>LEN(TRIM(A17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J2">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 H16:K16">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="16" priority="4">
       <formula>LEN(TRIM(A16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(C17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:J12">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="1">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6989,7 +6971,7 @@
     <mergeCell ref="B158:I158"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:J160">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10161,7 +10143,7 @@
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11025,11 +11007,11 @@
       <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -11049,11 +11031,11 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -11071,11 +11053,11 @@
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -23608,7 +23590,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23654,9 +23636,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>491</v>
-      </c>
+      <c r="A3" s="29"/>
       <c r="B3" s="12" t="s">
         <v>74</v>
       </c>
@@ -23664,15 +23644,15 @@
         <v>75</v>
       </c>
       <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="F3" s="27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>492</v>
-      </c>
+      <c r="A4" s="29"/>
       <c r="B4" s="27" t="s">
         <v>28</v>
       </c>
@@ -23680,30 +23660,31 @@
         <v>70</v>
       </c>
       <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="F4" s="27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>494</v>
-      </c>
+      <c r="A5" s="29"/>
       <c r="B5" s="27" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>146</v>
       </c>
       <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="F5" s="27" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>497</v>
-      </c>
+      <c r="A6" s="29"/>
       <c r="B6" s="27" t="s">
         <v>257</v>
       </c>
@@ -23711,15 +23692,15 @@
         <v>258</v>
       </c>
       <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="F6" s="27" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>499</v>
-      </c>
+      <c r="A7" s="29"/>
       <c r="B7" s="27" t="s">
         <v>306</v>
       </c>
@@ -23727,15 +23708,15 @@
         <v>307</v>
       </c>
       <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="F7" s="27" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>501</v>
-      </c>
+      <c r="A8" s="29"/>
       <c r="B8" s="27" t="s">
         <v>365</v>
       </c>
@@ -23743,9 +23724,11 @@
         <v>366</v>
       </c>
       <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="F8" s="27" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -25120,18 +25103,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
